--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="194">
   <si>
     <t>Application_Details</t>
   </si>
@@ -539,6 +539,36 @@
     <t>MSISDN--97478151797||New_PlanName--Postpaid Red 350 Promotion||</t>
   </si>
   <si>
+    <t>Mav@2017</t>
+  </si>
+  <si>
+    <t>OpenUI_AccesRrights_6Segments</t>
+  </si>
+  <si>
+    <t>OrderSubmission</t>
+  </si>
+  <si>
+    <t>Order Submition</t>
+  </si>
+  <si>
+    <t>OrderPayments</t>
+  </si>
+  <si>
+    <t>Order level payment</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provision</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provision</t>
+  </si>
+  <si>
     <t>QA05</t>
   </si>
   <si>
@@ -548,13 +578,43 @@
     <t>saravanank</t>
   </si>
   <si>
-    <t>Mav@2017</t>
-  </si>
-  <si>
-    <t>CustomerSegment</t>
-  </si>
-  <si>
-    <t>Customer Segment Verification</t>
+    <t>LocalCall</t>
+  </si>
+  <si>
+    <t>LocalCall_OnNet</t>
+  </si>
+  <si>
+    <t>PrevCheckBalance</t>
+  </si>
+  <si>
+    <t>Pre Balance Check</t>
+  </si>
+  <si>
+    <t>SetCapabilities</t>
+  </si>
+  <si>
+    <t>Setting Mobile Capabilities</t>
+  </si>
+  <si>
+    <t>Making Local Call</t>
+  </si>
+  <si>
+    <t>PostCheckBalance</t>
+  </si>
+  <si>
+    <t>Post Balance Check</t>
+  </si>
+  <si>
+    <t>LocalCallCharging</t>
+  </si>
+  <si>
+    <t>Local Cal Charging Verification</t>
+  </si>
+  <si>
+    <t>EntPostpaid_Provision_OrdPay</t>
+  </si>
+  <si>
+    <t>ConPostPaid_Provision_OrdPay</t>
   </si>
 </sst>
 </file>
@@ -759,157 +819,157 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
-            <v>ConsumerPrepaid_Provisioning</v>
+            <v>ConsumerPrepaid_Provision</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>ConsumerPostpaid_Provisioning</v>
+            <v>ConsumerPostpaid_Provision</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Modify</v>
+            <v>ConPostPaid_Provision_OrdPay</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Plan_UpgradeDowngrade</v>
+            <v>Modify</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>SIMSwap</v>
+            <v>Plan_UpgradeDowngrade</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>SIPT</v>
+            <v>SIMSwap</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>EnterprisePrepaid_Provisioning</v>
+            <v>SIPT</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>EnterprisePostpaid_Provisioning</v>
+            <v>EnterprisePrepaid_Provision</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Consumer_Migration</v>
+            <v>EnterprisePostpaid_Provision</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Enterprise_Migration</v>
+            <v>EntPostpaid_Provision_OrdPay</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Change_MSISDN</v>
+            <v>Consumer_Migration</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>BillPayment</v>
+            <v>Enterprise_Migration</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Change_SmartLimit</v>
+            <v>Change_MSISDN</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Disconnection</v>
+            <v>BillPayment</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>TroubleTicket</v>
+            <v>Change_SmartLimit</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Discounts</v>
+            <v>Disconnection</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>BillGeneration_AccountLevel</v>
+            <v>TroubleTicket</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>SIMSwap_Guided_Journey</v>
+            <v>Discounts</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>ConsumerPostpaid_GuidedJourney</v>
+            <v>BillGeneration_AccountLevel</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>TransferOfService</v>
+            <v>ConsumerFixedLine_Provision</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>ConsumerFixedLine_Provision</v>
+            <v>EnterpriseFixedLine_Provision</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>EnterpriseFixedLine_Provision</v>
+            <v>TransferOfService</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>SIMSwap_Global_Search</v>
+            <v>ConsumerPostpaid_GuidedJourney</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Suspend</v>
+            <v>SIMSwap_Guided_Journey</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Resume</v>
+            <v>BillGeneration_AccountLevel</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>UpgradePromotion_Account360</v>
+            <v>TransferOfOwnership</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Account360view</v>
+            <v>Suspend</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>CustomerSegment</v>
+            <v>Resume</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Change_PrimaryNumber</v>
+            <v>UpgradePromotion_Account360</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Barring</v>
+            <v>Account360view</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>UnBarring</v>
+            <v>CustomerSegment</v>
           </cell>
         </row>
       </sheetData>
@@ -1191,7 +1251,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,16 +1289,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -1306,7 +1366,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,10 +1416,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1427,7 @@
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -1409,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1426,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -1443,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -1460,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1477,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1494,27 +1554,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1531,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -1548,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -1565,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -1582,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
@@ -1599,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>24</v>
@@ -1616,16 +1690,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>78</v>
+      <c r="E17" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,16 +1707,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>175</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,16 +1724,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,16 +1741,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,160 +1758,177 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>6</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>27</v>
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>39</v>
+      <c r="E31" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>3</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
@@ -1846,15 +1937,15 @@
         <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>4</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>29</v>
@@ -1863,15 +1954,15 @@
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>31</v>
@@ -1885,10 +1976,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>33</v>
@@ -1902,10 +1993,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>7</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>26</v>
@@ -1921,8 +2012,8 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>34</v>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -1930,7 +2021,7 @@
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1938,997 +2029,1034 @@
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>34</v>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>35</v>
+      <c r="E39" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>26</v>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>5</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>23</v>
+      <c r="E46" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>45</v>
+      <c r="E47" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>7</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>4</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>5</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>6</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>7</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>32</v>
+      <c r="E58" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>80</v>
+      <c r="E59" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>3</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>6</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>73</v>
+        <v>176</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>77</v>
+        <v>176</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>7</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>33</v>
+        <v>192</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>26</v>
+        <v>192</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>3</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>31</v>
+        <v>192</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>32</v>
+      <c r="E83" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>78</v>
+      <c r="E85" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>13</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="D90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>2</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>3</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>32</v>
+      <c r="E93" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>4</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>78</v>
+      <c r="E94" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>5</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>72</v>
+      <c r="E95" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>7</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>81</v>
+      <c r="E97" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>9</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>7</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" s="6" t="s">
+      <c r="D99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>1</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>2</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>3</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>27</v>
+      <c r="B103" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>1</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>2</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>3</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>29</v>
@@ -2942,27 +3070,27 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>4</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>5</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>33</v>
@@ -2971,15 +3099,15 @@
         <v>16</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>6</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>26</v>
@@ -2995,8 +3123,8 @@
       <c r="A111" s="3">
         <v>1</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>87</v>
+      <c r="B111" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>13</v>
@@ -3012,1388 +3140,1912 @@
       <c r="A112" s="3">
         <v>2</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>87</v>
+      <c r="B112" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>3</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>87</v>
+      <c r="B113" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>1</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>2</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>3</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>88</v>
+        <v>7</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>8</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>1</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>2</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>3</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>2</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>7</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>3</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="3">
+        <v>1</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>3</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
+        <v>3</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E136" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>5</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>2</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
-        <v>6</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>2</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>2</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>3</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>2</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>1</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>2</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>2</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>2</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>2</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>2</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>2</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>6</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>2</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
+      <c r="A170" s="3">
+        <v>2</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>1</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>2</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>47</v>
+      <c r="E172" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>3</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>4</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>48</v>
+      <c r="E174" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>5</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>109</v>
+        <v>7</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>6</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>7</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>9</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>10</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>11</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>12</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>13</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C182" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>3</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D182" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
-        <v>1</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>14</v>
+      <c r="D183" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>2</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>3</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>4</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>5</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>6</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
+        <v>6</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>7</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>27</v>
+      <c r="B191" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>1</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>119</v>
+        <v>9</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>2</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>3</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>119</v>
+        <v>11</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>27</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>12</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>1</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
-        <v>2</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>3</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>4</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <v>5</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E200" s="6" t="s">
-        <v>32</v>
+      <c r="E200" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>6</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E201" s="6" t="s">
-        <v>80</v>
+      <c r="E201" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>7</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>16</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>6</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>1</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>162</v>
+        <v>7</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
-        <v>2</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>2</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
-        <v>2</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
+        <v>1</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>2</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>3</v>
       </c>
-      <c r="B210" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C210" s="5" t="s">
+      <c r="B212" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>4</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>5</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>6</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>7</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D210" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210" s="6" t="s">
+      <c r="D216" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>1</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>2</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>3</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>1</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>2</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>3</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>1</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>2</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>3</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>1</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>2</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>3</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>1</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>2</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>3</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>1</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>2</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>3</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>1</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>2</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>3</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>4</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>5</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +5059,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="UseCase">[1]LOV!$A$2:$A$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="199">
   <si>
     <t>Application_Details</t>
   </si>
@@ -335,9 +336,6 @@
     <t>pin</t>
   </si>
   <si>
-    <t>brmsitenv</t>
-  </si>
-  <si>
     <t>BillGeneration_AccountLevel</t>
   </si>
   <si>
@@ -539,9 +537,6 @@
     <t>MSISDN--97478151797||New_PlanName--Postpaid Red 350 Promotion||</t>
   </si>
   <si>
-    <t>Mav@2017</t>
-  </si>
-  <si>
     <t>OpenUI_AccesRrights_6Segments</t>
   </si>
   <si>
@@ -569,15 +564,6 @@
     <t>EnterprisePrepaid_Provision</t>
   </si>
   <si>
-    <t>QA05</t>
-  </si>
-  <si>
-    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>saravanank</t>
-  </si>
-  <si>
     <t>LocalCall</t>
   </si>
   <si>
@@ -615,6 +601,36 @@
   </si>
   <si>
     <t>ConPostPaid_Provision_OrdPay</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Mav@2018</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>InvoiceToPDF_Generation</t>
+  </si>
+  <si>
+    <t>Invoicegeneration</t>
+  </si>
+  <si>
+    <t>AccountNo--09956814568||Beyond_PVT_Date--03/02/2018 10:10:10m||</t>
+  </si>
+  <si>
+    <t>AccountNo--09956814568||PVT_Date--020200002018||</t>
+  </si>
+  <si>
+    <t>Plan selection &amp; order submition</t>
   </si>
 </sst>
 </file>
@@ -914,32 +930,32 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>ConsumerFixedLine_Provision</v>
+            <v>InvoiceToPDF_Generation</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>EnterpriseFixedLine_Provision</v>
+            <v>ConsumerFixedLine_Provision</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>TransferOfService</v>
+            <v>EnterpriseFixedLine_Provision</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>ConsumerPostpaid_GuidedJourney</v>
+            <v>TransferOfService</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>SIMSwap_Guided_Journey</v>
+            <v>ConsumerPostpaid_GuidedJourney</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>BillGeneration_AccountLevel</v>
+            <v>SIMSwap_Guided_Journey</v>
           </cell>
         </row>
         <row r="27">
@@ -1250,8 +1266,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1275,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1289,19 +1305,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,12 +1362,12 @@
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1379,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1390,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1405,6 +1421,46 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1416,10 +1472,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -1469,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1486,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -1503,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -1520,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1537,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1554,16 +1610,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>26</v>
@@ -1588,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1605,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -1622,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -1639,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -1656,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
@@ -1673,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>24</v>
@@ -1690,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -1724,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
@@ -1741,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>31</v>
@@ -1758,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>33</v>
@@ -1775,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>26</v>
@@ -1792,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
@@ -1809,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
@@ -1826,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
@@ -1843,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>20</v>
@@ -1860,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -1877,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>24</v>
@@ -1894,16 +1950,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,16 +1967,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
@@ -1945,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>29</v>
@@ -1962,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>31</v>
@@ -1979,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>33</v>
@@ -1996,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>26</v>
@@ -2404,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>13</v>
@@ -2421,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>41</v>
@@ -2438,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>43</v>
@@ -2455,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>20</v>
@@ -2472,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>22</v>
@@ -2489,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>24</v>
@@ -2506,16 +2562,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>77</v>
@@ -2540,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>29</v>
@@ -2557,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>31</v>
@@ -2574,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>33</v>
@@ -2591,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>26</v>
@@ -2611,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>13</v>
@@ -2628,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>41</v>
@@ -2645,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
@@ -2662,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>20</v>
@@ -2679,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>22</v>
@@ -2696,7 +2752,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>24</v>
@@ -2713,16 +2769,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,16 +2786,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>77</v>
@@ -2764,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>29</v>
@@ -2781,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>31</v>
@@ -2798,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>33</v>
@@ -2815,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>26</v>
@@ -2835,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -2852,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>41</v>
@@ -2869,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>43</v>
@@ -2886,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>20</v>
@@ -2903,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>22</v>
@@ -2920,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>24</v>
@@ -2937,16 +2993,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>26</v>
@@ -3719,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>94</v>
@@ -3736,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>16</v>
@@ -3753,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>92</v>
@@ -3770,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>14</v>
@@ -3787,16 +3843,16 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,33 +3860,26 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C161" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -3845,16 +3894,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,247 +3911,254 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>77</v>
+        <v>101</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>4</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>4</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>31</v>
+        <v>116</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>4</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>29</v>
+        <v>106</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
+        <v>2</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E174" s="6" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>4</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>62</v>
+        <v>106</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -4117,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>13</v>
@@ -4134,16 +4190,16 @@
         <v>2</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4151,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>26</v>
@@ -4167,8 +4223,8 @@
       <c r="A185" s="3">
         <v>1</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>109</v>
+      <c r="B185" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>13</v>
@@ -4176,7 +4232,7 @@
       <c r="D185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4184,195 +4240,195 @@
       <c r="A186" s="3">
         <v>2</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>109</v>
+      <c r="B186" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E186" s="5" t="s">
-        <v>47</v>
+      <c r="E186" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>3</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>120</v>
+      <c r="B187" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <v>4</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>116</v>
+      <c r="E193" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>116</v>
+        <v>16</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D195" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>116</v>
+      <c r="E195" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>10</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>1</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>13</v>
@@ -4380,672 +4436,740 @@
       <c r="D198" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>14</v>
+      <c r="E198" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>2</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>47</v>
+      <c r="E199" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <v>3</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
-        <v>4</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>4</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>1</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>119</v>
+        <v>5</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>2</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E207" s="6" t="s">
-        <v>108</v>
+      <c r="E207" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>3</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>8</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D208" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E208" s="6" t="s">
+      <c r="D209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
-        <v>1</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
-        <v>5</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>3</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>7</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D220" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="6" t="s">
+      <c r="D221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
-        <v>1</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
+        <v>2</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>3</v>
       </c>
-      <c r="B224" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C224" s="5" t="s">
+      <c r="B225" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D224" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E224" s="6" t="s">
+      <c r="D225" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
-        <v>1</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
+        <v>2</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>3</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C228" s="6" t="s">
+      <c r="B229" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E228" s="6" t="s">
+      <c r="D229" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
-        <v>1</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
+        <v>2</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>3</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C232" s="5" t="s">
+      <c r="B233" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D232" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E232" s="6" t="s">
+      <c r="D233" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
-        <v>1</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
+        <v>2</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>3</v>
       </c>
-      <c r="B236" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C236" s="5" t="s">
+      <c r="B237" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D236" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="6" t="s">
+      <c r="D237" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
-        <v>1</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
+        <v>2</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>3</v>
       </c>
-      <c r="B240" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C240" s="6" t="s">
+      <c r="B241" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D240" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="6" t="s">
+      <c r="D241" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
-        <v>1</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
+        <v>3</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>1</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>2</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>3</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>4</v>
       </c>
-      <c r="B245" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
-        <v>5</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>191</v>
+      <c r="B250" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>5</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5056,6 +5180,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5105,19 +5230,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5125,19 +5250,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,19 +5270,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,19 +5290,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5185,19 +5310,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5205,19 +5330,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5225,19 +5350,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5245,19 +5370,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,19 +5390,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5285,19 +5410,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5305,19 +5430,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5325,19 +5450,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5345,19 +5470,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5365,19 +5490,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5385,19 +5510,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,19 +5530,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,19 +5550,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,19 +5570,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5465,19 +5590,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,19 +5610,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5505,19 +5630,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5525,19 +5650,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5545,19 +5670,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5565,19 +5690,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,19 +5710,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,19 +5730,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="UseCase">[1]LOV!$A$2:$A$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="196">
   <si>
     <t>Application_Details</t>
   </si>
@@ -612,25 +611,16 @@
     <t>Mav@2018</t>
   </si>
   <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
-    <t>SingleAccount</t>
-  </si>
-  <si>
     <t>InvoiceToPDF_Generation</t>
   </si>
   <si>
     <t>Invoicegeneration</t>
   </si>
   <si>
-    <t>AccountNo--09956814568||Beyond_PVT_Date--03/02/2018 10:10:10m||</t>
-  </si>
-  <si>
-    <t>AccountNo--09956814568||PVT_Date--020200002018||</t>
-  </si>
-  <si>
     <t>Plan selection &amp; order submition</t>
+  </si>
+  <si>
+    <t>brmsitenv</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1256,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1362,7 +1352,7 @@
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1369,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -1390,10 +1380,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1421,46 +1411,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1424,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
@@ -3826,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>94</v>
@@ -3843,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>16</v>
@@ -3860,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>92</v>
@@ -4386,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -21,9 +21,10 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$1:$H$1</definedName>
     <definedName name="UseCase">[1]LOV!$A$2:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="193">
   <si>
     <t>Application_Details</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ConsumerPrepaid_Provisioning</t>
-  </si>
-  <si>
     <t>Siebel_Login</t>
   </si>
   <si>
@@ -119,9 +117,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>ConsumerPostpaid_Provisioning</t>
-  </si>
-  <si>
     <t>RTB_Login</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>Plan Item Selection for SIPT</t>
   </si>
   <si>
-    <t>EnterprisePrepaid_Provisioning</t>
-  </si>
-  <si>
     <t>Creating the Enterprise Account</t>
   </si>
   <si>
@@ -215,9 +207,6 @@
     <t>OSM_APP</t>
   </si>
   <si>
-    <t>EnterprisePostpaid_Provisioning</t>
-  </si>
-  <si>
     <t>Suspend</t>
   </si>
   <si>
@@ -428,93 +417,18 @@
     <t>TT</t>
   </si>
   <si>
-    <t>AddonDiscount</t>
-  </si>
-  <si>
     <t>Postpaid_To_Prepaid</t>
   </si>
   <si>
-    <t>ConsumerPrepaid</t>
-  </si>
-  <si>
-    <t>EnterprisePrepaid</t>
-  </si>
-  <si>
     <t>EnterprisePostpaid</t>
   </si>
   <si>
-    <t>Kahramaa_ID--1126194||PlanName--Vodafone Business Corporate Internet 2 Mbps||Charges--Corporate Internet Connection Charge||Static_&amp;_Dynamic_IP_Address--Static IP Address||Resilience_&amp;_CPE--Corporate Internet CPE||Corporate_SLA--Standard SLA||</t>
-  </si>
-  <si>
     <t>UpgradePromotion_Account360</t>
   </si>
   <si>
     <t>Upgrading promotion via Account 360</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151798||SIM--8962702800901162798||PlanName--Prepaid Red Promotion||ReservationToken--22921||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151798||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151798||New_PlanName--Postpaid Red 750 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||Pay_Type--Upfront||Channel--Cash||BillAmt--1000||Reference--2324355||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||SL_LimitAmount--450||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||Addon--Vodafone Passport||Discounts--Vodafone Passport 50% Discount||AddonTab--Paid Addons||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151799||SIM--8962702800901162811||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151811||New_SIM--8962702800901162811||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151800||SIM--8962702800901162800||PlanName--Prepaid Red Promotion||ReservationToken--22923||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151800||New_PlanName--*Freedom Roaming*||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151800||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151800||NEW_MSISDN--97478151796||ReservationToken--22919||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||SIM--8962702800901162797||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||ReservationToken--22920||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||Add_Addon--Paid Addons,CUG Pack||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||New_SIM--8962702800901162796||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||</t>
-  </si>
-  <si>
-    <t>AccountNo--09970460018||</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -527,15 +441,6 @@
     <t>Account 360 view</t>
   </si>
   <si>
-    <t>MSISDN--97478151799||SIM--8962702800901162799||PlanName--Postpaid Red 250 Promotion||Account_No--Fetch#IDP||ReservationToken--22922||</t>
-  </si>
-  <si>
-    <t>ACC_NO--09893460400||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151797||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
     <t>OpenUI_AccesRrights_6Segments</t>
   </si>
   <si>
@@ -620,7 +525,94 @@
     <t>Plan selection &amp; order submition</t>
   </si>
   <si>
-    <t>brmsitenv</t>
+    <t>MSISDN--97478152660||SIM--8962702800901163660||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152660||New_PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 350 Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152663||SIM--8962702800901163663||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152663||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152663||NEW_MSISDN--97478152662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>AccountNo--09948609002||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>AccountNo--09948609002||Beyond_PVT_Date--02-02-2018 10:10:10M||</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152660||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152660||New_PlanName--Postpaid Flex 100 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152663||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152663||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||PlanName--Postpaid Red 350 Promotion||Discounts--50% Discount for 3 months||PlanBundle--Red 350||</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1249,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1295,19 +1287,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,49 +1307,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1369,10 +1361,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,10 +1372,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1392,25 +1384,65 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1424,8 +1456,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="K194" sqref="K194"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,16 +1490,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,16 +1507,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,16 +1524,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,16 +1541,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,16 +1575,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,16 +1592,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,16 +1660,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,16 +1677,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,16 +1694,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,16 +1711,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,16 +1728,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,16 +1745,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,16 +1762,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,16 +1779,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,16 +1796,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,16 +1813,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,16 +1830,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,16 +1864,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,16 +1881,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,16 +1898,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,16 +1915,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,16 +1932,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,16 +1949,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,16 +1966,16 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,16 +1983,16 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,16 +2000,16 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,16 +2017,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,16 +2034,16 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,16 +2051,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,16 +2085,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,16 +2102,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,16 +2119,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,16 +2136,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,16 +2170,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,16 +2187,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,16 +2204,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,16 +2221,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,16 +2238,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,16 +2255,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,16 +2272,16 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,16 +2306,16 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,16 +2374,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,16 +2391,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,16 +2408,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,16 +2425,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,16 +2442,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,16 +2459,16 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,16 +2476,16 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,16 +2493,16 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,16 +2510,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,16 +2527,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,16 +2544,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,16 +2561,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,16 +2578,16 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,16 +2595,16 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,16 +2612,16 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,16 +2629,16 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,16 +2666,16 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,16 +2683,16 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,16 +2700,16 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,16 +2717,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,16 +2734,16 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,16 +2751,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,16 +2768,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,16 +2785,16 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,16 +2802,16 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,16 +2819,16 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,16 +2836,16 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,16 +2853,16 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,16 +2890,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,16 +2907,16 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,16 +2924,16 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,16 +2941,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,16 +2958,16 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,16 +2975,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,16 +2992,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,16 +3009,16 @@
         <v>1</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,16 +3026,16 @@
         <v>2</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,16 +3043,16 @@
         <v>3</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,16 +3060,16 @@
         <v>4</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,16 +3077,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D105" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,16 +3094,16 @@
         <v>6</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,16 +3111,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,16 +3128,16 @@
         <v>8</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,16 +3145,16 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,16 +3162,16 @@
         <v>1</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,16 +3179,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,16 +3196,16 @@
         <v>3</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,16 +3213,16 @@
         <v>4</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,16 +3230,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,16 +3247,16 @@
         <v>6</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,16 +3264,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D117" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,16 +3281,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,16 +3298,16 @@
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,16 +3315,16 @@
         <v>1</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,16 +3332,16 @@
         <v>2</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,16 +3349,16 @@
         <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,16 +3366,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,16 +3383,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,16 +3400,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,16 +3417,16 @@
         <v>8</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,16 +3434,16 @@
         <v>9</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,16 +3451,16 @@
         <v>1</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,16 +3468,16 @@
         <v>2</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,16 +3485,16 @@
         <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,16 +3502,16 @@
         <v>1</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,16 +3519,16 @@
         <v>2</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,16 +3536,16 @@
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,16 +3553,16 @@
         <v>4</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,16 +3570,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,16 +3587,16 @@
         <v>6</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,16 +3604,16 @@
         <v>1</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,16 +3621,16 @@
         <v>2</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,16 +3638,16 @@
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C143" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,16 +3672,16 @@
         <v>2</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3657,16 +3689,16 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,16 +3706,16 @@
         <v>1</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,16 +3723,16 @@
         <v>2</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,16 +3740,16 @@
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C151" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,16 +3757,16 @@
         <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,16 +3774,16 @@
         <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,16 +3791,16 @@
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,16 +3808,16 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,16 +3825,16 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,16 +3842,16 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,16 +3859,16 @@
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,16 +3876,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,16 +3893,16 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C163" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,16 +3917,16 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C165" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3902,16 +3934,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,16 +3951,16 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,16 +3968,16 @@
         <v>4</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,16 +3985,16 @@
         <v>5</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,16 +4002,16 @@
         <v>6</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,16 +4019,16 @@
         <v>9</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,16 +4036,16 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,16 +4053,16 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,16 +4070,16 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,16 +4087,16 @@
         <v>4</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,16 +4104,16 @@
         <v>5</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,16 +4121,16 @@
         <v>6</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,16 +4138,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C179" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,16 +4155,16 @@
         <v>1</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C181" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,16 +4172,16 @@
         <v>2</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,16 +4189,16 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C183" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,16 +4206,16 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C185" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,16 +4223,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,16 +4240,16 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C187" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4225,16 +4257,16 @@
         <v>1</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,16 +4274,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,16 +4291,16 @@
         <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4276,16 +4308,16 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,16 +4325,16 @@
         <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,16 +4342,16 @@
         <v>6</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4327,16 +4359,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4344,16 +4376,16 @@
         <v>9</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C196" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4361,16 +4393,16 @@
         <v>10</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C197" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4378,16 +4410,16 @@
         <v>11</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,16 +4427,16 @@
         <v>12</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4412,16 +4444,16 @@
         <v>13</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4429,16 +4461,16 @@
         <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4446,16 +4478,16 @@
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4463,16 +4495,16 @@
         <v>3</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4480,16 +4512,16 @@
         <v>4</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4497,16 +4529,16 @@
         <v>5</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C206" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4514,16 +4546,16 @@
         <v>6</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,16 +4563,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4548,16 +4580,16 @@
         <v>8</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C209" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,16 +4597,16 @@
         <v>1</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C211" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4582,16 +4614,16 @@
         <v>2</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4599,16 +4631,16 @@
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4616,16 +4648,16 @@
         <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4633,16 +4665,16 @@
         <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,16 +4682,16 @@
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,16 +4699,16 @@
         <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4684,16 +4716,16 @@
         <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4701,16 +4733,16 @@
         <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4718,16 +4750,16 @@
         <v>7</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C221" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4736,16 +4768,16 @@
         <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,16 +4785,16 @@
         <v>2</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,16 +4802,16 @@
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C225" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4787,16 +4819,16 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C227" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,16 +4836,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,16 +4853,16 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C229" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C231" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,16 +4887,16 @@
         <v>2</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,16 +4904,16 @@
         <v>3</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C233" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,16 +4921,16 @@
         <v>1</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C235" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,16 +4938,16 @@
         <v>2</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,16 +4955,16 @@
         <v>3</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C237" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -4940,16 +4972,16 @@
         <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C239" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,16 +4989,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,16 +5006,16 @@
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C241" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -4991,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C243" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5008,16 +5040,16 @@
         <v>2</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,16 +5057,16 @@
         <v>3</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C245" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,16 +5074,16 @@
         <v>1</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,16 +5091,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,16 +5108,16 @@
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,16 +5125,16 @@
         <v>4</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,16 +5142,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5131,10 +5163,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,7 +5177,7 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="240.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="119.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5154,25 +5186,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5180,19 +5212,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,19 +5232,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5220,19 +5252,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5240,19 +5272,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5260,19 +5292,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5280,19 +5312,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5300,19 +5332,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5320,19 +5352,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5340,19 +5372,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5360,19 +5392,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5380,19 +5412,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5400,19 +5432,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5420,19 +5452,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5440,19 +5472,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5460,19 +5492,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5480,19 +5512,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5500,19 +5532,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5520,19 +5552,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,19 +5572,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,19 +5592,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5580,19 +5612,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5600,19 +5632,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
-      </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5620,19 +5652,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5640,19 +5672,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,19 +5692,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5680,19 +5712,39 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
     <sheet name="Keywords" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$1:$H$1</definedName>
     <definedName name="UseCase">[1]LOV!$A$2:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="208">
   <si>
     <t>Application_Details</t>
   </si>
@@ -501,118 +502,163 @@
     <t>Local Cal Charging Verification</t>
   </si>
   <si>
-    <t>EntPostpaid_Provision_OrdPay</t>
-  </si>
-  <si>
-    <t>ConPostPaid_Provision_OrdPay</t>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>InvoiceToPDF_Generation</t>
+  </si>
+  <si>
+    <t>Invoicegeneration</t>
+  </si>
+  <si>
+    <t>Plan selection &amp; order submition</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||PlanName--Postpaid Red 350 Promotion||Discounts--50% Discount for 3 months||PlanBundle--Red 350||</t>
   </si>
   <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
     <t>Mav@2018</t>
   </si>
   <si>
-    <t>InvoiceToPDF_Generation</t>
-  </si>
-  <si>
-    <t>Invoicegeneration</t>
-  </si>
-  <si>
-    <t>Plan selection &amp; order submition</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152660||SIM--8962702800901163660||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152660||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 350 Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152663||SIM--8962702800901163663||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152663||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152663||NEW_MSISDN--97478152662||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>PlanDiscount</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
-  </si>
-  <si>
-    <t>AccountNo--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>SingleAccount</t>
-  </si>
-  <si>
-    <t>AccountNo--09948609002||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>AccountNo--09948609002||Beyond_PVT_Date--02-02-2018 10:10:10M||</t>
-  </si>
-  <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152660||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152660||New_PlanName--Postpaid Flex 100 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152663||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152663||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||PlanName--Postpaid Red 350 Promotion||Discounts--50% Discount for 3 months||PlanBundle--Red 350||</t>
+    <t>GlobalSearchMSISDN</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692,97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>GlobalSearchContact</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_ContactID--GTYH1234||Black_ContactID--99900007765||VVIP_ContactID--99987876U,23457||Qatari_ContactID--VQFT12370897||Expatriate_ContactID--454345||</t>
+  </si>
+  <si>
+    <t>AssertMSISDNQuery</t>
+  </si>
+  <si>
+    <t>GuidedSIMSwap</t>
+  </si>
+  <si>
+    <t>AccountNameQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountName--VFQA Test OUI SP2 Mav test Live SIM||Black_AccountName--VFQATEST_ EV11_TEST||VVIP_AccountName--VFQATEST_EODS_RetroPost VFQATEST_EODS_RetroPost,VFQATEST_Retest_Ankur VFQATEST_Retest_Ankur||Qatari_AccountName--VFQA_Mav VFQA_Test944||Expatriate_AccountName--VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv||</t>
+  </si>
+  <si>
+    <t>AccountNumberQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountNumber--8959436734||Black_AccountNumber--5637448925||VVIP_AccountNumber--7321895097,7779562981||Qatari_AccountNumber--9811140835||Expatriate_AccountNumber--7769191001||</t>
+  </si>
+  <si>
+    <t>ContactIDQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692||VIP_MSISDN--97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 350 Promotion||Account_No--10077053778||</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||New_PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||New_PlanName--Postpaid Flex 100 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||NEW_MSISDN--97478152662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>MSISDN--97478119570||SIM--8962702800901129570||PlanName--Postpaid Red 350 Promotion||PayType--Cash||PaymentReference--2131234||TransactionAmt--100||</t>
+  </si>
+  <si>
+    <t>AccountNo--10077053778||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 250 Promotion||Account_No--10092270788||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||PlanName--Postpaid Red 250 Promotion||Discounts--30% Monthly Discount||PlanBundle--Red 250||</t>
   </si>
 </sst>
 </file>
@@ -809,11 +855,11 @@
       <sheetName val="ValidationName"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
@@ -827,7 +873,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ConPostPaid_Provision_OrdPay</v>
+            <v>ConsumerPostpaid_Prov_OrdPay</v>
           </cell>
         </row>
         <row r="5">
@@ -862,7 +908,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>EntPostpaid_Provision_OrdPay</v>
+            <v>EnterprisePostpaid_Prov_OrdPay</v>
           </cell>
         </row>
         <row r="12">
@@ -967,16 +1013,16 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>CustomerSegment</v>
+            <v>OpenUI_AccesRrights_6Segments</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1248,8 +1294,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,13 +1336,13 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
         <v>131</v>
@@ -1344,7 +1390,7 @@
         <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,10 +1407,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,10 +1418,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1410,19 +1456,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,19 +1476,519 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>121</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
         <v>160</v>
       </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1456,8 +2002,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -1847,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -1864,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
@@ -1881,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -1898,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>21</v>
@@ -1915,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -1932,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>138</v>
@@ -1949,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>136</v>
@@ -1966,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>73</v>
@@ -1983,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2000,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -2017,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>31</v>
@@ -2034,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>25</v>
@@ -2649,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -2666,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>39</v>
@@ -2683,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>41</v>
@@ -2700,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
@@ -2717,7 +3263,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>21</v>
@@ -2734,7 +3280,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
@@ -2751,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>138</v>
@@ -2768,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>136</v>
@@ -2785,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>73</v>
@@ -2802,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>27</v>
@@ -2819,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>29</v>
@@ -2836,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>31</v>
@@ -2853,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>25</v>
@@ -3808,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>90</v>
@@ -3825,10 +4371,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
@@ -3842,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>88</v>
@@ -4368,7 +4914,7 @@
         <v>15</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,10 +5709,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,10 +5720,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="119.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5212,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -5224,7 +5770,7 @@
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5232,10 +5778,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -5244,7 +5790,7 @@
         <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5252,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>121</v>
@@ -5264,7 +5810,7 @@
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5272,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -5284,7 +5830,7 @@
         <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>121</v>
@@ -5304,7 +5850,7 @@
         <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5312,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -5324,7 +5870,7 @@
         <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5332,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>121</v>
@@ -5341,10 +5887,10 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
         <v>176</v>
-      </c>
-      <c r="G8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5352,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -5364,7 +5910,7 @@
         <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,7 +5918,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>121</v>
@@ -5384,7 +5930,7 @@
         <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5392,7 +5938,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>121</v>
@@ -5404,7 +5950,7 @@
         <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5412,7 +5958,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -5424,7 +5970,7 @@
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5432,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
@@ -5444,7 +5990,7 @@
         <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5452,7 +5998,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>117</v>
@@ -5464,7 +6010,7 @@
         <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5472,10 +6018,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
@@ -5484,7 +6030,7 @@
         <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5492,7 +6038,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
         <v>121</v>
@@ -5504,7 +6050,7 @@
         <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5512,7 +6058,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
@@ -5524,7 +6070,7 @@
         <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5532,7 +6078,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
@@ -5544,7 +6090,7 @@
         <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5552,7 +6098,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
@@ -5564,7 +6110,7 @@
         <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5572,7 +6118,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>121</v>
@@ -5584,7 +6130,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>121</v>
@@ -5604,7 +6150,7 @@
         <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
         <v>121</v>
@@ -5624,7 +6170,7 @@
         <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,7 +6178,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>121</v>
@@ -5644,7 +6190,7 @@
         <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5652,7 +6198,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>117</v>
@@ -5664,7 +6210,7 @@
         <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5672,7 +6218,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>121</v>
@@ -5684,7 +6230,7 @@
         <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5692,7 +6238,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
@@ -5704,7 +6250,7 @@
         <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,7 +6258,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
         <v>121</v>
@@ -5724,7 +6270,7 @@
         <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5732,7 +6278,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
         <v>121</v>
@@ -5741,10 +6287,241 @@
         <v>96</v>
       </c>
       <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>179</v>
       </c>
-      <c r="G28" t="s">
-        <v>191</v>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="223">
   <si>
     <t>Application_Details</t>
   </si>
@@ -319,346 +319,391 @@
     <t>URL/HOST</t>
   </si>
   <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>BillGeneration_AccountLevel</t>
+  </si>
+  <si>
+    <t>SIMSwap_Guided_Journey</t>
+  </si>
+  <si>
+    <t>SIMSwap Guided journey</t>
+  </si>
+  <si>
+    <t>SIMSwap_Global_Search</t>
+  </si>
+  <si>
+    <t>SIMSwap Global Search</t>
+  </si>
+  <si>
+    <t>Post-paid guided flow</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>Transfer of Service</t>
+  </si>
+  <si>
+    <t>ConsumerFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL</t>
+  </si>
+  <si>
+    <t>OSM_Login</t>
+  </si>
+  <si>
+    <t>OSM_SearchFL</t>
+  </si>
+  <si>
+    <t>EnterpriseFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL_ENT</t>
+  </si>
+  <si>
+    <t>login into OSM</t>
+  </si>
+  <si>
+    <t>Update the Status</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_GuidedJourney</t>
+  </si>
+  <si>
+    <t>SiebleValidation</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership</t>
+  </si>
+  <si>
+    <t>ServicePoint</t>
+  </si>
+  <si>
+    <t>Checking service Point</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>CRM_Level</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Postpaid_To_Prepaid</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_Account360</t>
+  </si>
+  <si>
+    <t>Upgrading promotion via Account 360</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Account360view</t>
+  </si>
+  <si>
+    <t>Account360</t>
+  </si>
+  <si>
+    <t>Account 360 view</t>
+  </si>
+  <si>
+    <t>OpenUI_AccesRrights_6Segments</t>
+  </si>
+  <si>
+    <t>OrderSubmission</t>
+  </si>
+  <si>
+    <t>Order Submition</t>
+  </si>
+  <si>
+    <t>OrderPayments</t>
+  </si>
+  <si>
+    <t>Order level payment</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provision</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provision</t>
+  </si>
+  <si>
+    <t>LocalCall</t>
+  </si>
+  <si>
+    <t>LocalCall_OnNet</t>
+  </si>
+  <si>
+    <t>PrevCheckBalance</t>
+  </si>
+  <si>
+    <t>Pre Balance Check</t>
+  </si>
+  <si>
+    <t>SetCapabilities</t>
+  </si>
+  <si>
+    <t>Setting Mobile Capabilities</t>
+  </si>
+  <si>
+    <t>Making Local Call</t>
+  </si>
+  <si>
+    <t>PostCheckBalance</t>
+  </si>
+  <si>
+    <t>Post Balance Check</t>
+  </si>
+  <si>
+    <t>LocalCallCharging</t>
+  </si>
+  <si>
+    <t>Local Cal Charging Verification</t>
+  </si>
+  <si>
+    <t>InvoiceToPDF_Generation</t>
+  </si>
+  <si>
+    <t>Invoicegeneration</t>
+  </si>
+  <si>
+    <t>Plan selection &amp; order submition</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>GlobalSearchMSISDN</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692,97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>GlobalSearchContact</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_ContactID--GTYH1234||Black_ContactID--99900007765||VVIP_ContactID--99987876U,23457||Qatari_ContactID--VQFT12370897||Expatriate_ContactID--454345||</t>
+  </si>
+  <si>
+    <t>AssertMSISDNQuery</t>
+  </si>
+  <si>
+    <t>GuidedSIMSwap</t>
+  </si>
+  <si>
+    <t>AccountNameQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountName--VFQA Test OUI SP2 Mav test Live SIM||Black_AccountName--VFQATEST_ EV11_TEST||VVIP_AccountName--VFQATEST_EODS_RetroPost VFQATEST_EODS_RetroPost,VFQATEST_Retest_Ankur VFQATEST_Retest_Ankur||Qatari_AccountName--VFQA_Mav VFQA_Test944||Expatriate_AccountName--VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv||</t>
+  </si>
+  <si>
+    <t>AccountNumberQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountNumber--8959436734||Black_AccountNumber--5637448925||VVIP_AccountNumber--7321895097,7779562981||Qatari_AccountNumber--9811140835||Expatriate_AccountNumber--7769191001||</t>
+  </si>
+  <si>
+    <t>ContactIDQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692||VIP_MSISDN--97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||New_PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||NEW_MSISDN--97478152662||</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>MSISDN--97478119570||SIM--8962702800901129570||PlanName--Postpaid Red 350 Promotion||PayType--Cash||PaymentReference--2131234||TransactionAmt--100||</t>
+  </si>
+  <si>
+    <t>AccountNo--10077053778||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 250 Promotion||Account_No--10092270788||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||PlanName--Postpaid Red 250 Promotion||Discounts--30% Monthly Discount||PlanBundle--Red 250||</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152662||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478127832||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478127832||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--10109137161||</t>
+  </si>
+  <si>
+    <t>AccountNo--10109137161||</t>
+  </si>
+  <si>
+    <t>AccountNo--10111455142||</t>
+  </si>
+  <si>
     <t>10.162.53.120</t>
   </si>
   <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>BillGeneration_AccountLevel</t>
-  </si>
-  <si>
-    <t>SIMSwap_Guided_Journey</t>
-  </si>
-  <si>
-    <t>SIMSwap Guided journey</t>
-  </si>
-  <si>
-    <t>SIMSwap_Global_Search</t>
-  </si>
-  <si>
-    <t>SIMSwap Global Search</t>
-  </si>
-  <si>
-    <t>Post-paid guided flow</t>
-  </si>
-  <si>
-    <t>TransferOfService</t>
-  </si>
-  <si>
-    <t>Transfer of Service</t>
-  </si>
-  <si>
-    <t>ConsumerFixedLine_Provision</t>
-  </si>
-  <si>
-    <t>PlanSelection_FL</t>
-  </si>
-  <si>
-    <t>OSM_Login</t>
-  </si>
-  <si>
-    <t>OSM_SearchFL</t>
-  </si>
-  <si>
-    <t>EnterpriseFixedLine_Provision</t>
-  </si>
-  <si>
-    <t>PlanSelection_FL_ENT</t>
-  </si>
-  <si>
-    <t>login into OSM</t>
-  </si>
-  <si>
-    <t>Update the Status</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_GuidedJourney</t>
-  </si>
-  <si>
-    <t>SiebleValidation</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership</t>
-  </si>
-  <si>
-    <t>ServicePoint</t>
-  </si>
-  <si>
-    <t>Checking service Point</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NewAccount</t>
-  </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Prepaid_To_Postpaid</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid</t>
-  </si>
-  <si>
-    <t>ExtCustomer</t>
-  </si>
-  <si>
-    <t>CRM_Level</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Postpaid_To_Prepaid</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid</t>
-  </si>
-  <si>
-    <t>UpgradePromotion_Account360</t>
-  </si>
-  <si>
-    <t>Upgrading promotion via Account 360</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Account360view</t>
-  </si>
-  <si>
-    <t>Account360</t>
-  </si>
-  <si>
-    <t>Account 360 view</t>
-  </si>
-  <si>
-    <t>OpenUI_AccesRrights_6Segments</t>
-  </si>
-  <si>
-    <t>OrderSubmission</t>
-  </si>
-  <si>
-    <t>Order Submition</t>
-  </si>
-  <si>
-    <t>OrderPayments</t>
-  </si>
-  <si>
-    <t>Order level payment</t>
-  </si>
-  <si>
-    <t>ConsumerPrepaid_Provision</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_Provision</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid_Provision</t>
-  </si>
-  <si>
-    <t>EnterprisePrepaid_Provision</t>
-  </si>
-  <si>
-    <t>LocalCall</t>
-  </si>
-  <si>
-    <t>LocalCall_OnNet</t>
-  </si>
-  <si>
-    <t>PrevCheckBalance</t>
-  </si>
-  <si>
-    <t>Pre Balance Check</t>
-  </si>
-  <si>
-    <t>SetCapabilities</t>
-  </si>
-  <si>
-    <t>Setting Mobile Capabilities</t>
-  </si>
-  <si>
-    <t>Making Local Call</t>
-  </si>
-  <si>
-    <t>PostCheckBalance</t>
-  </si>
-  <si>
-    <t>Post Balance Check</t>
-  </si>
-  <si>
-    <t>LocalCallCharging</t>
-  </si>
-  <si>
-    <t>Local Cal Charging Verification</t>
-  </si>
-  <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
-    <t>InvoiceToPDF_Generation</t>
-  </si>
-  <si>
-    <t>Invoicegeneration</t>
-  </si>
-  <si>
-    <t>Plan selection &amp; order submition</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>PlanDiscount</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
-  </si>
-  <si>
-    <t>SingleAccount</t>
-  </si>
-  <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>GlobalSearchMSISDN</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692,97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
-  </si>
-  <si>
-    <t>GlobalSearchContact</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_ContactID--GTYH1234||Black_ContactID--99900007765||VVIP_ContactID--99987876U,23457||Qatari_ContactID--VQFT12370897||Expatriate_ContactID--454345||</t>
-  </si>
-  <si>
-    <t>AssertMSISDNQuery</t>
-  </si>
-  <si>
-    <t>GuidedSIMSwap</t>
-  </si>
-  <si>
-    <t>AccountNameQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_AccountName--VFQA Test OUI SP2 Mav test Live SIM||Black_AccountName--VFQATEST_ EV11_TEST||VVIP_AccountName--VFQATEST_EODS_RetroPost VFQATEST_EODS_RetroPost,VFQATEST_Retest_Ankur VFQATEST_Retest_Ankur||Qatari_AccountName--VFQA_Mav VFQA_Test944||Expatriate_AccountName--VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv||</t>
-  </si>
-  <si>
-    <t>AccountNumberQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_AccountNumber--8959436734||Black_AccountNumber--5637448925||VVIP_AccountNumber--7321895097,7779562981||Qatari_AccountNumber--9811140835||Expatriate_AccountNumber--7769191001||</t>
-  </si>
-  <si>
-    <t>ContactIDQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692||VIP_MSISDN--97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||NEW_MSISDN--97478152662||</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_Prov_OrdPay</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid_Prov_OrdPay</t>
-  </si>
-  <si>
-    <t>MSISDN--97478119570||SIM--8962702800901129570||PlanName--Postpaid Red 350 Promotion||PayType--Cash||PaymentReference--2131234||TransactionAmt--100||</t>
-  </si>
-  <si>
-    <t>AccountNo--10077053778||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 250 Promotion||Account_No--10092270788||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||PlanName--Postpaid Red 250 Promotion||Discounts--30% Monthly Discount||PlanBundle--Red 250||</t>
-  </si>
-  <si>
-    <t>EnterprisePrepaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152662||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478127832||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478127832||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--10109137161||</t>
-  </si>
-  <si>
-    <t>AccountNo--10109137161||</t>
-  </si>
-  <si>
-    <t>AccountNo--10111455142||</t>
-  </si>
-  <si>
-    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Mav@2017</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HaleemBaig </t>
+  </si>
+  <si>
+    <t>Mav@2018</t>
+  </si>
+  <si>
+    <t>MSISDN--97430303030||SIM--8989343489892323||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97430303030||New_SIM--47474747747447||</t>
+  </si>
+  <si>
+    <t>MSISDN--97430303030||New_PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97430303030||</t>
+  </si>
+  <si>
+    <t>MSISDN--97422222222||SIM--8989222222222220||PlanName--Postpaid Flex 100 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97422222222||New_PlanName--Postpaid Flex 200 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97422222222||NEW_MSISDN--97433333333||</t>
+  </si>
+  <si>
+    <t>MSISDN--97433333333||New_SIM--8989333333333333333||</t>
+  </si>
+  <si>
+    <t>MSISDN--97433333333||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97444444444||SIM--89894444444444444444||PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97455555555||SIM--8995555555555||PlanName--Postpaid Vodafone Contractor Plan Promotion||</t>
+  </si>
+  <si>
+    <t>DunningProcesss</t>
   </si>
 </sst>
 </file>
@@ -790,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,8 +1342,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1351,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1333,19 +1381,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,18 +1432,18 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1455,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,10 +1466,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="98.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1449,6 +1497,246 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1748,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1513,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1530,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1547,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1564,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1581,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1598,16 +1886,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -1632,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -1649,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -1666,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -1683,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -1700,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -1717,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
@@ -1734,16 +2022,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>73</v>
@@ -1768,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
@@ -1785,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>29</v>
@@ -1802,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -1819,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>25</v>
@@ -1836,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -1853,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -1870,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
@@ -1887,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -1904,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>21</v>
@@ -1921,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -1938,16 +2226,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,16 +2243,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>73</v>
@@ -1989,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2006,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -2023,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>31</v>
@@ -2040,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>25</v>
@@ -2448,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -2465,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>39</v>
@@ -2482,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>41</v>
@@ -2499,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -2516,7 +2804,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>21</v>
@@ -2533,7 +2821,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
@@ -2550,16 +2838,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>73</v>
@@ -2584,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>27</v>
@@ -2601,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>29</v>
@@ -2618,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>31</v>
@@ -2635,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>25</v>
@@ -2655,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -2672,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>39</v>
@@ -2689,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>41</v>
@@ -2706,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
@@ -2723,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>21</v>
@@ -2740,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
@@ -2757,16 +3045,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2774,16 +3062,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>73</v>
@@ -2808,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>27</v>
@@ -2825,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>29</v>
@@ -2842,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>31</v>
@@ -2859,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>25</v>
@@ -2879,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -2896,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>39</v>
@@ -2913,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>41</v>
@@ -2930,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>19</v>
@@ -2947,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>21</v>
@@ -2964,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
@@ -2981,16 +3269,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>25</v>
@@ -3763,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>90</v>
@@ -3780,10 +4068,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
@@ -3797,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>88</v>
@@ -3814,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>90</v>
@@ -3831,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
@@ -3848,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>88</v>
@@ -3865,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>12</v>
@@ -3882,16 +4170,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -3923,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -3940,16 +4228,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>73</v>
@@ -3974,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>27</v>
@@ -3991,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>29</v>
@@ -4008,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>31</v>
@@ -4025,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>25</v>
@@ -4042,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>12</v>
@@ -4059,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>27</v>
@@ -4076,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>29</v>
@@ -4093,16 +4381,16 @@
         <v>4</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>27</v>
@@ -4127,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>79</v>
@@ -4144,7 +4432,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>25</v>
@@ -4263,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>12</v>
@@ -4280,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>14</v>
@@ -4297,16 +4585,16 @@
         <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>17</v>
@@ -4331,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>19</v>
@@ -4348,7 +4636,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>21</v>
@@ -4365,16 +4653,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D195" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,16 +4670,16 @@
         <v>9</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4399,16 +4687,16 @@
         <v>10</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4416,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>12</v>
@@ -4425,7 +4713,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,16 +4721,16 @@
         <v>12</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,7 +4738,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>25</v>
@@ -4459,7 +4747,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>12</v>
@@ -4484,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>39</v>
@@ -4501,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>41</v>
@@ -4518,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>19</v>
@@ -4535,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>21</v>
@@ -4552,10 +4840,10 @@
         <v>6</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>15</v>
@@ -4569,16 +4857,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -4603,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>12</v>
@@ -4620,16 +4908,16 @@
         <v>2</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
@@ -4654,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>12</v>
@@ -4671,16 +4959,16 @@
         <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>73</v>
@@ -4705,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>27</v>
@@ -4722,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>29</v>
@@ -4739,7 +5027,7 @@
         <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>31</v>
@@ -4756,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -4774,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>12</v>
@@ -4791,16 +5079,16 @@
         <v>2</v>
       </c>
       <c r="B224" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="D224" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4808,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -4825,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>12</v>
@@ -4842,16 +5130,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4859,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>25</v>
@@ -4978,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>12</v>
@@ -4995,16 +5283,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,7 +5300,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
@@ -5080,16 +5368,16 @@
         <v>1</v>
       </c>
       <c r="B247" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="D247" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5097,16 +5385,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C248" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,16 +5402,16 @@
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5131,16 +5419,16 @@
         <v>4</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5148,16 +5436,118 @@
         <v>5</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C251" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D251" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>154</v>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5171,8 +5561,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection sqref="A1:AB28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,19 +5608,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,19 +5628,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5258,19 +5648,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5278,19 +5668,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5298,19 +5688,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5318,19 +5708,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5338,19 +5728,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5358,19 +5748,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,19 +5768,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5398,19 +5788,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5418,19 +5808,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,19 +5828,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5458,19 +5848,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5478,19 +5868,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5498,19 +5888,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,19 +5908,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5538,19 +5928,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5558,19 +5948,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5578,19 +5968,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5598,19 +5988,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5618,19 +6008,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,19 +6028,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,19 +6048,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5678,19 +6068,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,19 +6088,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,19 +6108,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5738,19 +6128,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5758,19 +6148,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
         <v>191</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5778,19 +6168,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5849,19 +6239,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5869,19 +6259,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5889,19 +6279,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5909,19 +6299,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,19 +6319,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5949,19 +6339,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5969,19 +6359,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="241">
   <si>
     <t>Application_Details</t>
   </si>
@@ -295,12 +295,6 @@
     <t>Discounts</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
     <t>LogoutSSH</t>
   </si>
   <si>
@@ -313,15 +307,9 @@
     <t>BRM_Putty</t>
   </si>
   <si>
-    <t>QA07</t>
-  </si>
-  <si>
     <t>URL/HOST</t>
   </si>
   <si>
-    <t>pin</t>
-  </si>
-  <si>
     <t>BillGeneration_AccountLevel</t>
   </si>
   <si>
@@ -469,36 +457,15 @@
     <t>LocalCall</t>
   </si>
   <si>
-    <t>LocalCall_OnNet</t>
-  </si>
-  <si>
     <t>PrevCheckBalance</t>
   </si>
   <si>
-    <t>Pre Balance Check</t>
-  </si>
-  <si>
-    <t>SetCapabilities</t>
-  </si>
-  <si>
-    <t>Setting Mobile Capabilities</t>
-  </si>
-  <si>
-    <t>Making Local Call</t>
-  </si>
-  <si>
     <t>PostCheckBalance</t>
   </si>
   <si>
-    <t>Post Balance Check</t>
-  </si>
-  <si>
     <t>LocalCallCharging</t>
   </si>
   <si>
-    <t>Local Cal Charging Verification</t>
-  </si>
-  <si>
     <t>InvoiceToPDF_Generation</t>
   </si>
   <si>
@@ -532,9 +499,6 @@
     <t>SingleAccount</t>
   </si>
   <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
     <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
   </si>
   <si>
@@ -649,7 +613,139 @@
     <t>AccountNo--10111455142||</t>
   </si>
   <si>
-    <t>10.162.53.120</t>
+    <t>Dunning Process</t>
+  </si>
+  <si>
+    <t>DunningProcess</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collection Commands</t>
+  </si>
+  <si>
+    <t>DBConnection</t>
+  </si>
+  <si>
+    <t>BRM_DB</t>
+  </si>
+  <si>
+    <t>BillPoID</t>
+  </si>
+  <si>
+    <t>DBDisconnection</t>
+  </si>
+  <si>
+    <t>Connecting to BRM DB</t>
+  </si>
+  <si>
+    <t>Getting Bill PoID   from DB</t>
+  </si>
+  <si>
+    <t>DB Disconnected</t>
+  </si>
+  <si>
+    <t>DunningAction</t>
+  </si>
+  <si>
+    <t>ExitCriteria</t>
+  </si>
+  <si>
+    <t>SetCallCapabilities</t>
+  </si>
+  <si>
+    <t>Dialer</t>
+  </si>
+  <si>
+    <t>InternationalCall</t>
+  </si>
+  <si>
+    <t>InternationalCallCharging</t>
+  </si>
+  <si>
+    <t>International Call Charging</t>
+  </si>
+  <si>
+    <t>LocalSMS</t>
+  </si>
+  <si>
+    <t>setMessengerCapabilities</t>
+  </si>
+  <si>
+    <t>smsSender</t>
+  </si>
+  <si>
+    <t>SMS Sender</t>
+  </si>
+  <si>
+    <t>LocalSMSCharging</t>
+  </si>
+  <si>
+    <t>InternationalSMS</t>
+  </si>
+  <si>
+    <t>InternationalSMSCharging</t>
+  </si>
+  <si>
+    <t>International SMS Charging</t>
+  </si>
+  <si>
+    <t>BalanceCheck</t>
+  </si>
+  <si>
+    <t>BalanceCheckDialer</t>
+  </si>
+  <si>
+    <t>SetUpMobileDevice</t>
+  </si>
+  <si>
+    <t>RestartMobile</t>
+  </si>
+  <si>
+    <t>ConfigureSMSC</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>RechargeDialer</t>
+  </si>
+  <si>
+    <t>VerifyRecharge</t>
+  </si>
+  <si>
+    <t>RechargeUSSD</t>
+  </si>
+  <si>
+    <t>FlexBalanceCheck</t>
+  </si>
+  <si>
+    <t>ProductInfo_USSD</t>
+  </si>
+  <si>
+    <t>InvokeUSSDMenu</t>
+  </si>
+  <si>
+    <t>USSDJourney</t>
+  </si>
+  <si>
+    <t>USSDCleaner</t>
+  </si>
+  <si>
+    <t>ProductInfoNotification</t>
+  </si>
+  <si>
+    <t>Recharge_USSDMenu</t>
+  </si>
+  <si>
+    <t>PunchRechargePIN</t>
+  </si>
+  <si>
+    <t>ProductActivation_USSD_Prepaid</t>
+  </si>
+  <si>
+    <t>VerifyProductActivationPrepaid</t>
   </si>
   <si>
     <t>Production</t>
@@ -658,52 +754,10 @@
     <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
-    <t xml:space="preserve">HaleemBaig </t>
-  </si>
-  <si>
-    <t>Mav@2018</t>
-  </si>
-  <si>
-    <t>MSISDN--97430303030||SIM--8989343489892323||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>ConsumerPrepaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97430303030||New_SIM--47474747747447||</t>
-  </si>
-  <si>
-    <t>MSISDN--97430303030||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97430303030||</t>
-  </si>
-  <si>
-    <t>MSISDN--97422222222||SIM--8989222222222220||PlanName--Postpaid Flex 100 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97422222222||New_PlanName--Postpaid Flex 200 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97422222222||NEW_MSISDN--97433333333||</t>
-  </si>
-  <si>
-    <t>MSISDN--97433333333||New_SIM--8989333333333333333||</t>
-  </si>
-  <si>
-    <t>MSISDN--97433333333||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97444444444||SIM--89894444444444444444||PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>AccountNo--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97455555555||SIM--8995555555555||PlanName--Postpaid Vodafone Contractor Plan Promotion||</t>
-  </si>
-  <si>
-    <t>DunningProcesss</t>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>10.162.53.94</t>
   </si>
 </sst>
 </file>
@@ -835,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,6 +918,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1342,8 +1399,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1381,19 +1438,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,33 +1468,32 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1505,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,10 +1516,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1497,246 +1547,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1748,10 +1558,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="E261" sqref="E261"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,6 +1570,7 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1801,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1818,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1835,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1852,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1869,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1886,16 +1697,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -1920,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -1937,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -1954,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -1971,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -1988,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -2005,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
@@ -2022,16 +1833,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>73</v>
@@ -2056,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
@@ -2073,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>29</v>
@@ -2090,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2107,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>25</v>
@@ -2124,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -2141,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -2158,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
@@ -2175,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -2192,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>21</v>
@@ -2209,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -2226,16 +2037,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,16 +2054,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>73</v>
@@ -2277,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2294,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -2311,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>31</v>
@@ -2328,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>25</v>
@@ -2736,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -2753,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>39</v>
@@ -2770,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>41</v>
@@ -2787,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -2804,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>21</v>
@@ -2821,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
@@ -2838,16 +2649,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>73</v>
@@ -2872,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>27</v>
@@ -2889,7 +2700,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>29</v>
@@ -2906,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>31</v>
@@ -2923,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>25</v>
@@ -2943,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -2960,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>39</v>
@@ -2977,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>41</v>
@@ -2994,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
@@ -3011,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>21</v>
@@ -3028,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
@@ -3045,16 +2856,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,16 +2873,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>73</v>
@@ -3096,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>27</v>
@@ -3113,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>29</v>
@@ -3130,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>31</v>
@@ -3147,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>25</v>
@@ -3167,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -3184,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>39</v>
@@ -3201,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>41</v>
@@ -3218,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>19</v>
@@ -3235,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>21</v>
@@ -3252,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
@@ -3269,16 +3080,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>25</v>
@@ -4051,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>13</v>
@@ -4068,16 +3879,16 @@
         <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4085,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>26</v>
@@ -4102,13 +3913,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>13</v>
@@ -4119,16 +3930,16 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4136,13 +3947,13 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>26</v>
@@ -4153,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>12</v>
@@ -4170,16 +3981,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4187,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -4211,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4228,16 +4039,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>73</v>
@@ -4262,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>27</v>
@@ -4279,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>29</v>
@@ -4296,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>31</v>
@@ -4313,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>25</v>
@@ -4330,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>12</v>
@@ -4347,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>27</v>
@@ -4364,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>29</v>
@@ -4381,16 +4192,16 @@
         <v>4</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4398,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>27</v>
@@ -4415,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>79</v>
@@ -4432,7 +4243,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>25</v>
@@ -4551,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>12</v>
@@ -4568,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>14</v>
@@ -4585,16 +4396,16 @@
         <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4602,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>17</v>
@@ -4619,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>19</v>
@@ -4636,7 +4447,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>21</v>
@@ -4653,16 +4464,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,16 +4481,16 @@
         <v>9</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4687,16 +4498,16 @@
         <v>10</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C197" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4704,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>12</v>
@@ -4713,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4721,16 +4532,16 @@
         <v>12</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4738,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>25</v>
@@ -4747,7 +4558,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4755,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>12</v>
@@ -4772,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>39</v>
@@ -4789,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>41</v>
@@ -4806,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>19</v>
@@ -4823,7 +4634,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>21</v>
@@ -4840,10 +4651,10 @@
         <v>6</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>15</v>
@@ -4857,16 +4668,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4874,7 +4685,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>25</v>
@@ -4891,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>12</v>
@@ -4908,16 +4719,16 @@
         <v>2</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4925,7 +4736,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
@@ -4942,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>12</v>
@@ -4959,16 +4770,16 @@
         <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4976,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>73</v>
@@ -4993,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>27</v>
@@ -5010,7 +4821,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>29</v>
@@ -5027,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>31</v>
@@ -5044,7 +4855,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -5062,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>12</v>
@@ -5079,16 +4890,16 @@
         <v>2</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -5113,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>12</v>
@@ -5130,16 +4941,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>25</v>
@@ -5266,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>12</v>
@@ -5283,16 +5094,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
@@ -5368,16 +5179,16 @@
         <v>1</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,16 +5196,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,16 +5213,16 @@
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5419,16 +5230,16 @@
         <v>4</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,118 +5247,1159 @@
         <v>5</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>153</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>6</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>7</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="3">
+        <v>8</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>9</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <v>1</v>
       </c>
-      <c r="B254" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>2</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>3</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>4</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>90</v>
+      <c r="B257" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>5</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>155</v>
+      <c r="A258" s="3">
+        <v>2</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>6</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>88</v>
+      <c r="A259" s="3">
+        <v>3</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>1</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>2</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>3</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="8">
+        <v>1</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="8">
+        <v>2</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="8">
+        <v>3</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="8">
+        <v>4</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="8">
+        <v>5</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="8">
+        <v>1</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="8">
+        <v>2</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="8">
+        <v>3</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="8">
+        <v>4</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="8">
+        <v>5</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="8">
+        <v>1</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="8">
+        <v>2</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="8">
+        <v>3</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="8">
+        <v>4</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="8">
+        <v>5</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="8">
+        <v>1</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="8">
+        <v>2</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="8">
+        <v>3</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="8">
+        <v>4</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="8">
+        <v>5</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="8">
+        <v>1</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="8">
+        <v>2</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="14">
+        <v>3</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="14">
+        <v>4</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
+        <v>1</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D295" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>3</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D296" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
+        <v>1</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D298" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="7">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D299" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="7">
+        <v>3</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="7">
+        <v>4</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="7">
+        <v>5</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="8">
+        <v>1</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D304" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="8">
+        <v>2</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D305" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="14">
+        <v>3</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D306" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="14">
+        <v>4</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D307" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="7">
+        <v>1</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="7">
+        <v>2</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="7">
+        <v>3</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="7">
+        <v>4</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="7">
+        <v>5</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D313" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="7">
+        <v>6</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="7">
+        <v>1</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="7">
+        <v>2</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D317" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="7">
+        <v>3</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="7">
+        <v>4</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D319" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="7">
+        <v>5</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D320" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="7">
+        <v>6</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D321" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="7">
+        <v>7</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D322" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="7">
+        <v>1</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D324" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>2</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D325" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="7">
+        <v>3</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D326" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="7">
+        <v>4</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="7">
+        <v>5</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="7">
+        <v>6</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D329" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="7">
+        <v>7</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D330" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5608,19 +6460,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5628,19 +6480,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5648,19 +6500,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5668,19 +6520,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5688,19 +6540,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5708,19 +6560,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5728,19 +6580,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5748,19 +6600,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5768,19 +6620,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5788,19 +6640,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5808,19 +6660,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5828,19 +6680,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5848,19 +6700,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5868,19 +6720,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5888,19 +6740,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5908,19 +6760,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,19 +6780,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5948,19 +6800,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5968,19 +6820,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5988,19 +6840,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6008,19 +6860,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6028,19 +6880,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6048,19 +6900,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,19 +6920,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6088,19 +6940,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6108,19 +6960,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6128,19 +6980,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6148,19 +7000,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,19 +7020,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6239,19 +7091,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6259,19 +7111,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6279,19 +7131,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6299,19 +7151,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6319,19 +7171,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6339,19 +7191,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6359,19 +7211,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="255">
   <si>
     <t>Application_Details</t>
   </si>
@@ -758,13 +758,55 @@
   </si>
   <si>
     <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200827||SIM--8942702111303536008||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200827||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200827||New_SIM--8942702111307087735||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200827||NEW_MSISDN--97470200839||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200839||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470346807||SIM--8942702111303537790||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97470463423||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200831||New_SIM--8942702111303535760||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200831||New_PlanName--Postpaid Flex 100 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470200831||</t>
+  </si>
+  <si>
+    <t>MSISDN--97470463423||SIM--8942702111303536024||PlanName--Postpaid Standard Promotion||Kahramaa_ID--1127266||</t>
+  </si>
+  <si>
+    <t>SARAVANANKALIVARADHAN</t>
+  </si>
+  <si>
+    <t>M@veric@2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +846,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -886,10 +943,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,8 +983,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1400,7 +1463,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1471,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1443,6 +1506,12 @@
       <c r="C2" t="s">
         <v>238</v>
       </c>
+      <c r="D2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>254</v>
+      </c>
       <c r="F2" t="s">
         <v>126</v>
       </c>
@@ -1497,18 +1566,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,10 +1588,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="112" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1547,6 +1619,266 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="241">
   <si>
     <t>Application_Details</t>
   </si>
@@ -361,9 +361,6 @@
     <t>ConsumerPostpaid_GuidedJourney</t>
   </si>
   <si>
-    <t>SiebleValidation</t>
-  </si>
-  <si>
     <t>TransferOfOwnership</t>
   </si>
   <si>
@@ -748,65 +745,26 @@
     <t>VerifyProductActivationPrepaid</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>10.162.53.95</t>
-  </si>
-  <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200827||SIM--8942702111303536008||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200827||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200827||New_SIM--8942702111307087735||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200827||NEW_MSISDN--97470200839||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200839||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470346807||SIM--8942702111303537790||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>ConsumerPrepaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97470463423||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200831||New_SIM--8942702111303535760||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200831||New_PlanName--Postpaid Flex 100 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470200831||</t>
-  </si>
-  <si>
-    <t>MSISDN--97470463423||SIM--8942702111303536024||PlanName--Postpaid Standard Promotion||Kahramaa_ID--1127266||</t>
-  </si>
-  <si>
-    <t>SARAVANANKALIVARADHAN</t>
-  </si>
-  <si>
-    <t>M@veric@2018</t>
+    <t>FL_ONT_CPE_Replacement</t>
+  </si>
+  <si>
+    <t>OrderVerfication</t>
+  </si>
+  <si>
+    <t>QA07</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>10.162.52.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,21 +804,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -943,11 +886,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,19 +919,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,7 +1402,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1501,19 +1432,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,12 +1471,12 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -1562,22 +1487,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -1588,10 +1510,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="112" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1619,266 +1541,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1890,10 +1552,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="L329" sqref="L329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1944,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1961,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1978,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1995,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -2012,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -2029,16 +1691,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -2063,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -2080,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -2097,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -2114,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -2131,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -2148,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
@@ -2165,16 +1827,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2182,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>73</v>
@@ -2199,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
@@ -2216,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>29</v>
@@ -2233,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2250,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>25</v>
@@ -2267,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -2284,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -2301,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
@@ -2318,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -2335,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>21</v>
@@ -2352,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -2369,16 +2031,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>73</v>
@@ -2420,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2437,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -2454,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>31</v>
@@ -2471,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>25</v>
@@ -2879,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -2896,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>39</v>
@@ -2913,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>41</v>
@@ -2930,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -2947,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>21</v>
@@ -2964,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
@@ -2981,16 +2643,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>73</v>
@@ -3015,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>27</v>
@@ -3032,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>29</v>
@@ -3049,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>31</v>
@@ -3066,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>25</v>
@@ -3086,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -3103,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>39</v>
@@ -3120,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>41</v>
@@ -3137,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
@@ -3154,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>21</v>
@@ -3171,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
@@ -3188,16 +2850,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,16 +2867,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3222,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>73</v>
@@ -3239,7 +2901,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>27</v>
@@ -3256,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>29</v>
@@ -3273,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>31</v>
@@ -3290,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>25</v>
@@ -3310,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -3327,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>39</v>
@@ -3344,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>41</v>
@@ -3361,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>19</v>
@@ -3378,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>21</v>
@@ -3395,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
@@ -3412,16 +3074,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3429,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>25</v>
@@ -4245,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>88</v>
@@ -4262,10 +3924,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
@@ -4279,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>86</v>
@@ -4693,16 +4355,16 @@
       <c r="A189" s="3">
         <v>1</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4710,16 +4372,16 @@
       <c r="A190" s="3">
         <v>2</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4727,33 +4389,33 @@
       <c r="A191" s="3">
         <v>3</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>4</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4761,16 +4423,16 @@
       <c r="A193" s="3">
         <v>5</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4778,16 +4440,16 @@
       <c r="A194" s="3">
         <v>6</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4795,27 +4457,27 @@
       <c r="A195" s="3">
         <v>7</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E195" s="5" t="s">
-        <v>145</v>
+      <c r="E195" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D196" s="6" t="s">
@@ -4829,10 +4491,10 @@
       <c r="A197" s="3">
         <v>10</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -4846,10 +4508,10 @@
       <c r="A198" s="3">
         <v>11</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -4863,11 +4525,11 @@
       <c r="A199" s="3">
         <v>12</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>108</v>
+      <c r="C199" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>15</v>
@@ -4880,10 +4542,10 @@
       <c r="A200" s="3">
         <v>13</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="6" t="s">
@@ -5003,13 +4665,13 @@
         <v>103</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5034,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>12</v>
@@ -5051,10 +4713,10 @@
         <v>2</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>15</v>
@@ -5068,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>25</v>
@@ -5085,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>12</v>
@@ -5102,16 +4764,16 @@
         <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>73</v>
@@ -5136,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>27</v>
@@ -5153,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>29</v>
@@ -5170,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>31</v>
@@ -5187,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -5205,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>12</v>
@@ -5222,16 +4884,16 @@
         <v>2</v>
       </c>
       <c r="B224" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="D224" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,7 +4901,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -5256,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>12</v>
@@ -5273,16 +4935,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5290,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>25</v>
@@ -5511,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>12</v>
@@ -5528,16 +5190,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5545,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
@@ -5562,16 +5224,16 @@
         <v>4</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D250" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="E250" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5579,16 +5241,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5596,16 +5258,16 @@
         <v>6</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5613,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>88</v>
@@ -5630,16 +5292,16 @@
         <v>8</v>
       </c>
       <c r="B254" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="D254" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>86</v>
@@ -5664,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>12</v>
@@ -5681,16 +5343,16 @@
         <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5698,7 +5360,7 @@
         <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
@@ -5715,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>12</v>
@@ -5732,16 +5394,16 @@
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>25</v>
@@ -5761,89 +5423,89 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
+    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>1</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="D265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>2</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>3</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>4</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C268" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D265" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" s="13" t="s">
+      <c r="D268" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="8">
-        <v>2</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E266" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="8">
-        <v>3</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E267" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="8">
-        <v>4</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C268" s="13" t="s">
+    <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>5</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D268" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" s="13" t="s">
+      <c r="D269" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="6" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
-        <v>5</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5853,89 +5515,89 @@
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="8">
+    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>2</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>3</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>4</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>5</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C271" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="8">
-        <v>2</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="8">
-        <v>3</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E273" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="8">
-        <v>4</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="8">
-        <v>5</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C275" s="13" t="s">
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5945,89 +5607,89 @@
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="8">
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>1</v>
       </c>
       <c r="B277" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>2</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="D278" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>3</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>4</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D277" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E277" s="13" t="s">
+      <c r="D280" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="8">
-        <v>2</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D278" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E278" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="8">
-        <v>3</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C279" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" s="13" t="s">
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>5</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C281" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
-        <v>4</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="8">
-        <v>5</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D281" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="13" t="s">
-        <v>214</v>
+      <c r="D281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6037,701 +5699,837 @@
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="8">
+    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
         <v>1</v>
       </c>
       <c r="B283" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>2</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>3</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>4</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>5</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="D287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>1</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>2</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>3</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>4</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>1</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>2</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>3</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>1</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>2</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>3</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>4</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D283" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="13" t="s">
+      <c r="D301" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="8">
+    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>5</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>1</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
         <v>2</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="8">
+      <c r="B305" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
         <v>3</v>
       </c>
-      <c r="B285" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E285" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="B306" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
         <v>4</v>
       </c>
-      <c r="B286" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E286" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="8">
-        <v>5</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="13" t="s">
+      <c r="B307" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
         <v>1</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D289" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="8">
+      <c r="B309" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
         <v>2</v>
       </c>
-      <c r="B290" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E290" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="14">
+      <c r="B310" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
         <v>3</v>
       </c>
-      <c r="B291" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C291" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D291" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="14">
+      <c r="B311" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
         <v>4</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C292" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D292" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+      <c r="B312" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>5</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>6</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
         <v>1</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D294" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="7">
+      <c r="B316" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
         <v>2</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D295" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+      <c r="B317" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
         <v>3</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C296" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D296" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E296" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="7">
+      <c r="B318" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>4</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>5</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>6</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>7</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
         <v>1</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C298" s="13" t="s">
+      <c r="B324" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>2</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>3</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>4</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>5</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>6</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C329" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D298" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="13" t="s">
+      <c r="D329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="7">
+    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>7</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>1</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
         <v>2</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E299" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="7">
+      <c r="B333" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
         <v>3</v>
       </c>
-      <c r="B300" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D300" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="7">
+      <c r="B334" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
         <v>4</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
-        <v>5</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
-        <v>1</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D304" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="8">
-        <v>2</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="14">
-        <v>3</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C306" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D306" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="14">
-        <v>4</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D307" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="7">
-        <v>1</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D309" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="7">
-        <v>2</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D310" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
-        <v>3</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D311" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
-        <v>4</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D312" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="7">
-        <v>5</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="7">
+      <c r="B335" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>5</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>6</v>
       </c>
-      <c r="B314" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D314" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="7">
-        <v>1</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D316" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
-        <v>2</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C317" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
-        <v>3</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D318" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E318" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="7">
-        <v>4</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
-        <v>5</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D320" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E320" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
-        <v>6</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D321" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="7">
+      <c r="B337" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
         <v>7</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C322" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D322" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="7">
-        <v>1</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D324" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="7">
-        <v>2</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D325" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
-        <v>3</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C326" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D326" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
-        <v>4</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D327" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="7">
-        <v>5</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D328" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E328" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
-        <v>6</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="7">
-        <v>7</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C330" s="13" t="s">
+      <c r="B338" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D330" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" s="13" t="s">
+      <c r="C338" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>8</v>
+      </c>
+      <c r="B339" s="8" t="s">
         <v>236</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6792,19 +6590,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6812,19 +6610,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6832,19 +6630,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6852,19 +6650,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,19 +6670,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6892,19 +6690,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6912,19 +6710,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6932,19 +6730,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6952,19 +6750,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,19 +6770,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6992,19 +6790,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7012,19 +6810,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7032,19 +6830,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7052,19 +6850,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7072,19 +6870,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7092,19 +6890,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7112,19 +6910,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7132,19 +6930,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7152,19 +6950,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7172,19 +6970,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7192,19 +6990,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,19 +7010,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7232,19 +7030,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7252,19 +7050,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7272,19 +7070,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7292,19 +7090,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7312,19 +7110,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7332,19 +7130,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7352,19 +7150,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7423,19 +7221,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7443,19 +7241,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7463,19 +7261,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7483,19 +7281,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7503,19 +7301,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
         <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7523,19 +7321,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7543,19 +7341,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -1554,8 +1554,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="L329" sqref="L329"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="247">
   <si>
     <t>Application_Details</t>
   </si>
@@ -646,9 +646,6 @@
     <t>DunningAction</t>
   </si>
   <si>
-    <t>ExitCriteria</t>
-  </si>
-  <si>
     <t>SetCallCapabilities</t>
   </si>
   <si>
@@ -751,13 +748,34 @@
     <t>OrderVerfication</t>
   </si>
   <si>
-    <t>QA07</t>
-  </si>
-  <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>10.162.52.95</t>
+  </si>
+  <si>
+    <t>Invoke</t>
+  </si>
+  <si>
+    <t>USSDMenu</t>
+  </si>
+  <si>
+    <t>SearchAsset</t>
+  </si>
+  <si>
+    <t>CheckOrder</t>
+  </si>
+  <si>
+    <t>Postpaid_USSD_Act-DeAct</t>
+  </si>
+  <si>
+    <t>https://10.162.53.50:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Mav@2018</t>
+  </si>
+  <si>
+    <t>CollectionExit</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1412,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1420,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1432,10 +1450,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
@@ -1471,7 +1495,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,7 +1506,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,7 +1526,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1576,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,1626 +1734,1643 @@
       <c r="B9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>134</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>134</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>131</v>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
+      <c r="C21" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>76</v>
+      <c r="E21" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>135</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>135</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>131</v>
+      <c r="E31" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>27</v>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>29</v>
+      <c r="C34" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>31</v>
+      <c r="C35" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>76</v>
+      <c r="E35" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>25</v>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>3</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>4</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>31</v>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>25</v>
+      <c r="C43" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>4</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>29</v>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>31</v>
+      <c r="C50" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>25</v>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>2</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>33</v>
+      <c r="E54" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>8</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>1</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>2</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>3</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>4</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>3</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>5</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>74</v>
+      <c r="E72" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>27</v>
+      <c r="C73" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>29</v>
+      <c r="C74" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>30</v>
+      <c r="E74" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>31</v>
+      <c r="C75" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>76</v>
+      <c r="E75" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="3">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
+        <v>136</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>39</v>
+        <v>136</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>44</v>
+      <c r="E79" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>45</v>
+      <c r="E80" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>5</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>133</v>
+      <c r="E84" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>74</v>
+      <c r="E86" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>27</v>
+      <c r="C87" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>29</v>
+      <c r="C88" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>30</v>
+      <c r="E88" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>31</v>
+      <c r="C89" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="3">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>12</v>
+        <v>177</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>39</v>
+        <v>177</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>44</v>
+      <c r="E93" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>41</v>
+        <v>177</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>45</v>
+      <c r="E94" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>5</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>29</v>
+        <v>137</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>30</v>
+      <c r="E103" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>73</v>
+        <v>137</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>1</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>9</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>26</v>
+      <c r="C110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>73</v>
@@ -3343,12 +3384,12 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -3360,10 +3401,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>75</v>
@@ -3377,10 +3418,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>31</v>
@@ -3394,10 +3435,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>25</v>
@@ -3413,8 +3454,8 @@
       <c r="A121" s="3">
         <v>1</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>67</v>
+      <c r="B121" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>12</v>
@@ -3430,8 +3471,8 @@
       <c r="A122" s="3">
         <v>2</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>67</v>
+      <c r="B122" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>27</v>
@@ -3447,8 +3488,8 @@
       <c r="A123" s="3">
         <v>3</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>67</v>
+      <c r="B123" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>29</v>
@@ -3464,8 +3505,8 @@
       <c r="A124" s="3">
         <v>4</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>67</v>
+      <c r="B124" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>73</v>
@@ -3481,365 +3522,399 @@
       <c r="A125" s="3">
         <v>5</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>67</v>
+      <c r="B125" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>7</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>8</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>79</v>
+        <v>7</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
+        <v>8</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>9</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>26</v>
+      <c r="B129" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>1</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>2</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>9</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="6" t="s">
+      <c r="D140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
-        <v>1</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
+        <v>2</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>3</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" s="6" t="s">
+      <c r="B144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="6" t="s">
+      <c r="D144" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
-        <v>1</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
+        <v>2</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>3</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>26</v>
+      <c r="B148" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>1</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>2</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>3</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>25</v>
@@ -3856,13 +3931,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>13</v>
@@ -3873,16 +3948,16 @@
         <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,13 +3965,13 @@
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>26</v>
@@ -3907,13 +3982,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>13</v>
@@ -3924,16 +3999,16 @@
         <v>2</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>143</v>
+        <v>84</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,13 +4016,13 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>26</v>
@@ -3957,10 +4032,10 @@
       <c r="A161" s="3">
         <v>1</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" s="6" t="s">
+      <c r="B161" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -3974,25 +4049,25 @@
       <c r="A162" s="3">
         <v>2</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>92</v>
+      <c r="B162" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>3</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>92</v>
+      <c r="B163" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -4003,26 +4078,19 @@
       <c r="E163" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>13</v>
@@ -4033,16 +4101,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,81 +4118,64 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>4</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>25</v>
+        <v>142</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>26</v>
@@ -4135,9 +4186,9 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C173" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -4152,16 +4203,16 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>27</v>
+        <v>92</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,128 +4220,135 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>4</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>4</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C183" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -4305,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>12</v>
@@ -4322,16 +4380,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,517 +4397,517 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>4</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
-        <v>4</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
-        <v>9</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
+        <v>3</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>1</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="D201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>1</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>2</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E203" s="5" t="s">
-        <v>44</v>
+      <c r="E203" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>3</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>4</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C205" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>5</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C206" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>6</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E207" s="5" t="s">
-        <v>24</v>
+      <c r="E207" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>7</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>130</v>
+        <v>9</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>131</v>
+        <v>56</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>8</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>11</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>12</v>
+        <v>99</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
-        <v>3</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>1</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>1</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>2</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E216" s="6" t="s">
-        <v>124</v>
+      <c r="E216" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>3</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E217" s="6" t="s">
-        <v>24</v>
+      <c r="E217" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>4</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>5</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E219" s="6" t="s">
-        <v>30</v>
+      <c r="E219" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>6</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E220" s="6" t="s">
-        <v>76</v>
+      <c r="E220" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>7</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>25</v>
@@ -4861,13 +4919,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>1</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>12</v>
@@ -4884,16 +4941,16 @@
         <v>2</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4901,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>25</v>
@@ -4918,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>12</v>
@@ -4935,16 +4992,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4952,60 +5009,77 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>4</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C233" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C233" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="6" t="s">
@@ -5015,12 +5089,13 @@
         <v>26</v>
       </c>
     </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>1</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>12</v>
@@ -5037,16 +5112,16 @@
         <v>2</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5054,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
@@ -5071,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>12</v>
@@ -5088,16 +5163,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>25</v>
@@ -5122,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>12</v>
@@ -5139,16 +5214,16 @@
         <v>2</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5156,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>25</v>
@@ -5321,7 +5396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>1</v>
       </c>
@@ -5338,7 +5413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2</v>
       </c>
@@ -5355,7 +5430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>3</v>
       </c>
@@ -5372,12 +5447,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>1</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>12</v>
@@ -5389,29 +5464,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>25</v>
@@ -5448,13 +5523,13 @@
         <v>138</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,13 +5540,13 @@
         <v>138</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>139</v>
@@ -5537,16 +5612,16 @@
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,16 +5629,16 @@
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>140</v>
@@ -5588,16 +5663,16 @@
         <v>5</v>
       </c>
       <c r="B275" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5612,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>139</v>
@@ -5629,16 +5704,16 @@
         <v>2</v>
       </c>
       <c r="B278" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5646,16 +5721,16 @@
         <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>140</v>
@@ -5680,16 +5755,16 @@
         <v>5</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5704,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>139</v>
@@ -5721,16 +5796,16 @@
         <v>2</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5738,16 +5813,16 @@
         <v>3</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5755,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>140</v>
@@ -5772,16 +5847,16 @@
         <v>5</v>
       </c>
       <c r="B287" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="D287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,16 +5864,16 @@
         <v>1</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,16 +5881,16 @@
         <v>2</v>
       </c>
       <c r="B290" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C290" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,16 +5898,16 @@
         <v>3</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,16 +5915,16 @@
         <v>4</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,16 +5932,16 @@
         <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C294" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C294" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5874,16 +5949,16 @@
         <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,16 +5966,16 @@
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5908,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>139</v>
@@ -5925,16 +6000,16 @@
         <v>2</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5942,16 +6017,16 @@
         <v>3</v>
       </c>
       <c r="B300" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C300" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5959,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>140</v>
@@ -5976,16 +6051,16 @@
         <v>5</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C302" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5993,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6044,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6061,16 +6136,16 @@
         <v>1</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6078,16 +6153,16 @@
         <v>2</v>
       </c>
       <c r="B310" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6095,16 +6170,16 @@
         <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6112,16 +6187,16 @@
         <v>4</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,16 +6204,16 @@
         <v>5</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6146,16 +6221,16 @@
         <v>6</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6163,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>139</v>
@@ -6180,16 +6255,16 @@
         <v>2</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,16 +6272,16 @@
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,16 +6289,16 @@
         <v>4</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,16 +6306,16 @@
         <v>5</v>
       </c>
       <c r="B320" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C320" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,7 +6323,7 @@
         <v>6</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>140</v>
@@ -6265,16 +6340,16 @@
         <v>7</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>139</v>
@@ -6299,16 +6374,16 @@
         <v>2</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,16 +6391,16 @@
         <v>3</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6333,16 +6408,16 @@
         <v>4</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,16 +6425,16 @@
         <v>5</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>140</v>
@@ -6384,16 +6459,16 @@
         <v>7</v>
       </c>
       <c r="B330" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C330" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C330" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>12</v>
@@ -6418,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
@@ -6435,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>25</v>
@@ -6452,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>101</v>
@@ -6469,7 +6544,7 @@
         <v>5</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>102</v>
@@ -6486,7 +6561,7 @@
         <v>6</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>12</v>
@@ -6503,10 +6578,10 @@
         <v>7</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C338" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
@@ -6520,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>25</v>
@@ -6529,6 +6604,363 @@
         <v>5</v>
       </c>
       <c r="E339" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>1</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>2</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>3</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>4</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>5</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>6</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>7</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>8</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>9</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>10</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>11</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>12</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>1</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>2</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>3</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>1</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>2</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>3</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>1</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>2</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>3</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E365" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA_New\VFQA\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Work_New\VFQA\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="253">
   <si>
     <t>Application_Details</t>
   </si>
@@ -748,9 +748,6 @@
     <t>OrderVerfication</t>
   </si>
   <si>
-    <t>10.162.52.95</t>
-  </si>
-  <si>
     <t>Invoke</t>
   </si>
   <si>
@@ -766,9 +763,6 @@
     <t>Postpaid_USSD_Act-DeAct</t>
   </si>
   <si>
-    <t>https://10.162.53.50:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
@@ -776,13 +770,37 @@
   </si>
   <si>
     <t>CollectionExit</t>
+  </si>
+  <si>
+    <t>QA07</t>
+  </si>
+  <si>
+    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>10.162.53.120</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>10.162.53.119</t>
+  </si>
+  <si>
+    <t>SARAVANANK</t>
+  </si>
+  <si>
+    <t>AccountNo--10517552508||PVT_Date--030212002018||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +840,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -904,10 +930,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,8 +964,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1411,8 +1440,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,16 +1479,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
         <v>243</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
@@ -1495,7 +1524,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,7 +1541,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,18 +1556,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1581,7 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1565,6 +1609,26 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5452,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>12</v>
@@ -5469,16 +5533,16 @@
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5486,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>25</v>
@@ -6612,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>203</v>
@@ -6629,16 +6693,16 @@
         <v>2</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6646,16 +6710,16 @@
         <v>3</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>228</v>
@@ -6680,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>229</v>
@@ -6697,7 +6761,7 @@
         <v>6</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>12</v>
@@ -6714,16 +6778,16 @@
         <v>7</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,16 +6795,16 @@
         <v>8</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>27</v>
@@ -6765,7 +6829,7 @@
         <v>10</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>29</v>
@@ -6782,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>31</v>
@@ -6799,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="255">
   <si>
     <t>Application_Details</t>
   </si>
@@ -775,32 +775,38 @@
     <t>QA07</t>
   </si>
   <si>
-    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>10.162.53.120</t>
-  </si>
-  <si>
     <t>pin</t>
   </si>
   <si>
     <t>Brmsitenv@123</t>
   </si>
   <si>
-    <t>10.162.53.119</t>
-  </si>
-  <si>
     <t>SARAVANANK</t>
   </si>
   <si>
-    <t>AccountNo--10517552508||PVT_Date--030212002018||</t>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>AccountNo--10531964188||Action--Incoming Bar||</t>
+  </si>
+  <si>
+    <t>AccountNo--10531964188||PVT_Date--030212002018||</t>
+  </si>
+  <si>
+    <t>AccountNo--10531964188||BillingProfile--1-4U6GJN9||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,14 +846,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -930,11 +928,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,10 +961,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,7 +1436,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,8 +1476,8 @@
       <c r="B2" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>246</v>
+      <c r="C2" t="s">
+        <v>251</v>
       </c>
       <c r="D2" t="s">
         <v>242</v>
@@ -1524,13 +1519,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
         <v>247</v>
-      </c>
-      <c r="D5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1539,10 @@
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,21 +1551,18 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,10 +1570,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1616,19 +1608,59 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>111</v>
       </c>
       <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="G2" t="s">
-        <v>252</v>
+      <c r="G4" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1675,7 @@
   <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Work_New\VFQA\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA_New\VFQA\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="261">
   <si>
     <t>Application_Details</t>
   </si>
@@ -793,13 +793,31 @@
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
-    <t>AccountNo--10531964188||Action--Incoming Bar||</t>
-  </si>
-  <si>
-    <t>AccountNo--10531964188||PVT_Date--030212002018||</t>
-  </si>
-  <si>
-    <t>AccountNo--10531964188||BillingProfile--1-4U6GJN9||</t>
+    <t>ETHERNET</t>
+  </si>
+  <si>
+    <t>Ethernet Plan Selection</t>
+  </si>
+  <si>
+    <t>LEASEDLINE</t>
+  </si>
+  <si>
+    <t>Leased line  Plan Selection</t>
+  </si>
+  <si>
+    <t>IPLC</t>
+  </si>
+  <si>
+    <t>CheckBarringCall</t>
+  </si>
+  <si>
+    <t>CheckUnBarringCall</t>
+  </si>
+  <si>
+    <t>Making a call after UnBar</t>
+  </si>
+  <si>
+    <t>Making a call after Bar</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1453,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1559,10 +1577,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,10 +1588,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,66 +1619,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1672,10 +1630,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,1739 +5282,1926 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>3</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" s="6" t="s">
+      <c r="D246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
-        <v>1</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C255" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>9</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D255" s="6" t="s">
+      <c r="D256" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <v>1</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C259" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>3</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D259" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E259" s="6" t="s">
+      <c r="D260" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <v>1</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C263" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>3</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D263" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E263" s="6" t="s">
+      <c r="D264" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
-        <v>1</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C269" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>5</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D269" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E269" s="6" t="s">
+      <c r="D270" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-    </row>
-    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>1</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>139</v>
-      </c>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C275" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>5</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D275" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="6" t="s">
+      <c r="D276" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E276" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-    </row>
-    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>1</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>139</v>
-      </c>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C281" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>5</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D281" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="6" t="s">
+      <c r="D282" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-    </row>
-    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
-        <v>1</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>139</v>
-      </c>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C287" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>5</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C288" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D287" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="6" t="s">
+      <c r="D288" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="6" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
-        <v>1</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E289" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C292" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>4</v>
+      </c>
+      <c r="B293" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
+      <c r="C293" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <v>1</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>219</v>
+      <c r="D293" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C296" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>3</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D296" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E296" s="6" t="s">
+      <c r="D297" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="6" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>1</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C302" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>5</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>1</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C307" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>4</v>
+      </c>
+      <c r="B308" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
+      <c r="C308" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="6" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>1</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C314" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>6</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C315" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="6" t="s">
+      <c r="D315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" s="6" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
-        <v>1</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E316" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C322" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>7</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D322" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" s="6" t="s">
+      <c r="D323" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" s="6" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
-        <v>1</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C330" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>7</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C331" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D330" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" s="6" t="s">
+      <c r="D331" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" s="6" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
-        <v>1</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C339" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>8</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D339" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E339" s="6" t="s">
+      <c r="D340" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E340" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>1</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>12</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D352" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E352" s="6" t="s">
+      <c r="D353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>1</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>66</v>
+      <c r="C356" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C357" s="5" t="s">
-        <v>25</v>
+      <c r="C357" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>2</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>2</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>2</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
-        <v>2</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>2</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>3</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C367" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D365" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E365" s="6" t="s">
+      <c r="D367" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>1</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>2</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>3</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>1</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>2</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>3</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>1</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>2</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>3</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E379" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="262">
   <si>
     <t>Application_Details</t>
   </si>
@@ -772,9 +772,6 @@
     <t>CollectionExit</t>
   </si>
   <si>
-    <t>QA07</t>
-  </si>
-  <si>
     <t>pin</t>
   </si>
   <si>
@@ -790,9 +787,6 @@
     <t>10.162.53.94</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>ETHERNET</t>
   </si>
   <si>
@@ -818,6 +812,15 @@
   </si>
   <si>
     <t>Making a call after Bar</t>
+  </si>
+  <si>
+    <t>MSISDN--97478120630||</t>
+  </si>
+  <si>
+    <t>https://10.162.53.150:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>QA08</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1495,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
         <v>242</v>
@@ -1537,13 +1540,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
         <v>246</v>
-      </c>
-      <c r="E5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,13 +1557,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1580,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -1589,9 +1592,9 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1619,6 +1622,26 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5288,13 +5311,13 @@
         <v>65</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6924,13 +6947,13 @@
         <v>66</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7057,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>12</v>
@@ -7074,16 +7097,16 @@
         <v>2</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -7091,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>25</v>
@@ -7108,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>12</v>
@@ -7125,16 +7148,16 @@
         <v>2</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -7142,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>25</v>
@@ -7159,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>12</v>
@@ -7176,16 +7199,16 @@
         <v>2</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -7193,7 +7216,7 @@
         <v>3</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="264">
   <si>
     <t>Application_Details</t>
   </si>
@@ -814,13 +814,19 @@
     <t>Making a call after Bar</t>
   </si>
   <si>
-    <t>MSISDN--97478120630||</t>
-  </si>
-  <si>
     <t>https://10.162.53.150:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
     <t>QA08</t>
+  </si>
+  <si>
+    <t>ModifySmartLimit</t>
+  </si>
+  <si>
+    <t>Modify Spend Limit</t>
+  </si>
+  <si>
+    <t>ModifySmartLimit_Acc360</t>
   </si>
 </sst>
 </file>
@@ -1095,87 +1101,87 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Change_SmartLimit</v>
+            <v>ModifySmartLimit</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Disconnection</v>
+            <v>ModifySmartLimit_Acc360</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>TroubleTicket</v>
+            <v>Disconnection</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Discounts</v>
+            <v>TroubleTicket</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>BillGeneration_AccountLevel</v>
+            <v>Discounts</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>InvoiceToPDF_Generation</v>
+            <v>BillGeneration_AccountLevel</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>ConsumerFixedLine_Provision</v>
+            <v>InvoiceToPDF_Generation</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>EnterpriseFixedLine_Provision</v>
+            <v>ConsumerFixedLine_Provision</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>TransferOfService</v>
+            <v>EnterpriseFixedLine_Provision</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>ConsumerPostpaid_GuidedJourney</v>
+            <v>TransferOfService</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>SIMSwap_Guided_Journey</v>
+            <v>ConsumerPostpaid_GuidedJourney</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>TransferOfOwnership</v>
+            <v>SIMSwap_Guided_Journey</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Suspend</v>
+            <v>TransferOfOwnership</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Resume</v>
+            <v>Suspend</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>UpgradePromotion_Account360</v>
+            <v>Resume</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Account360view</v>
+            <v>UpgradePromotion_Account360</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>OpenUI_AccesRrights_6Segments</v>
+            <v>Account360view</v>
           </cell>
         </row>
       </sheetData>
@@ -1495,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
         <v>242</v>
@@ -1580,7 +1586,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -1592,9 +1598,9 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,26 +1628,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +1639,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>12</v>
@@ -3923,10 +3909,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
@@ -3940,526 +3926,526 @@
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
-        <v>4</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C151" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>3</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="6" t="s">
+      <c r="D152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>1</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
+        <v>2</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>3</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="B156" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="6" t="s">
+      <c r="D156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>1</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>2</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
+        <v>2</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>3</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="6" t="s">
+      <c r="B160" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="6" t="s">
+      <c r="D160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>1</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>2</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
+        <v>2</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>3</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="6" t="s">
+      <c r="B164" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
-        <v>1</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
+        <v>2</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>3</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="B168" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>1</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
+        <v>2</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>3</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E171" s="6" t="s">
+      <c r="B172" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>1</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
+        <v>2</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>3</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
+      <c r="B176" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>5</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>3</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>12</v>
+      <c r="C185" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="6" t="s">
@@ -4471,2112 +4457,2112 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>97</v>
+      <c r="C188" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
-        <v>5</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>3</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191" s="6" t="s">
+      <c r="D192" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
-        <v>1</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
+        <v>2</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>3</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C195" s="6" t="s">
+      <c r="B196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="6" t="s">
+      <c r="D196" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
-        <v>1</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>60</v>
+        <v>99</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
+        <v>2</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>3</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>26</v>
+      <c r="B200" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
-        <v>11</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
+        <v>1</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="D211" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>13</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>3</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
-        <v>6</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>7</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>8</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C221" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>3</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C222" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D221" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="6" t="s">
+      <c r="D222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
-        <v>1</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
+        <v>2</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>3</v>
       </c>
-      <c r="B225" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>26</v>
+      <c r="B226" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
-        <v>5</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C233" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>3</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D233" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E233" s="6" t="s">
+      <c r="D234" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
-        <v>1</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
+        <v>2</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>3</v>
       </c>
-      <c r="B237" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C237" s="5" t="s">
+      <c r="B238" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D237" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="6" t="s">
+      <c r="D238" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
-        <v>1</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>2</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>12</v>
+      <c r="C243" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
-        <v>2</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
+        <v>2</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>3</v>
       </c>
-      <c r="B246" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C246" s="6" t="s">
+      <c r="B247" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D246" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="6" t="s">
+      <c r="D247" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>7</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E254" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>1</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
-        <v>8</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E256" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>3</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <v>1</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
+        <v>2</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>3</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C260" s="5" t="s">
+      <c r="B261" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D260" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E260" s="6" t="s">
+      <c r="D261" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>1</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
+        <v>2</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>3</v>
       </c>
-      <c r="B264" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>26</v>
+      <c r="B265" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
-        <v>3</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>3</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>3</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>3</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>3</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>3</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>3</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E286" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>3</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <v>2</v>
-      </c>
-      <c r="B291" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>1</v>
-      </c>
-      <c r="B295" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>3</v>
+      </c>
+      <c r="B294" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C295" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>219</v>
+      <c r="C294" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
+        <v>2</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
         <v>3</v>
       </c>
-      <c r="B297" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E297" s="6" t="s">
-        <v>220</v>
+      <c r="B298" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
-        <v>3</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>3</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
-        <v>2</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>3</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
-        <v>4</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>230</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>3</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
-        <v>5</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>3</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
-        <v>5</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>234</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>3</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E333" s="6" t="s">
         <v>13</v>
@@ -6584,647 +6570,647 @@
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
-        <v>6</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>26</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>3</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>10</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>11</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
+        <v>1</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B353" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D353" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>2</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>2</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>2</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
+        <v>2</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
         <v>3</v>
       </c>
-      <c r="B359" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C359" s="5" t="s">
+      <c r="B360" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C360" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D359" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E359" s="6" t="s">
+      <c r="D360" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E360" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>1</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
+        <v>2</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
         <v>3</v>
       </c>
-      <c r="B363" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C363" s="5" t="s">
+      <c r="B364" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C364" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D363" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E363" s="6" t="s">
+      <c r="D364" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E364" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
-        <v>1</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E365" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>63</v>
+        <v>250</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
+        <v>2</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
         <v>3</v>
       </c>
-      <c r="B367" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C367" s="6" t="s">
+      <c r="B368" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D367" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E367" s="6" t="s">
+      <c r="D368" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E368" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
-        <v>1</v>
-      </c>
-      <c r="B369" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D369" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E369" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
+        <v>2</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
         <v>3</v>
       </c>
-      <c r="B371" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C371" s="6" t="s">
+      <c r="B372" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D371" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E371" s="6" t="s">
+      <c r="D372" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
-        <v>1</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D373" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E373" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
+        <v>2</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
         <v>3</v>
       </c>
-      <c r="B375" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C375" s="6" t="s">
+      <c r="B376" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C376" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D375" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E375" s="6" t="s">
+      <c r="D376" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E376" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
-        <v>1</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D377" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E377" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
+        <v>2</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
         <v>3</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C379" s="6" t="s">
+      <c r="B380" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C380" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D379" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E379" s="6" t="s">
+      <c r="D380" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E380" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="268">
   <si>
     <t>Application_Details</t>
   </si>
@@ -827,6 +827,18 @@
   </si>
   <si>
     <t>ModifySmartLimit_Acc360</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_C2C</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_C2E</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_E2C</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_E2E</t>
   </si>
 </sst>
 </file>
@@ -1161,27 +1173,27 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>TransferOfOwnership</v>
+            <v>TransferOfOwnership_C2C</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Suspend</v>
+            <v>TransferOfOwnership_E2C</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Resume</v>
+            <v>TransferOfOwnership_E2E</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>UpgradePromotion_Account360</v>
+            <v>TransferOfOwnership_C2E</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Account360view</v>
+            <v>Suspend</v>
           </cell>
         </row>
       </sheetData>
@@ -1639,10 +1651,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,14 +4943,15 @@
         <v>26</v>
       </c>
     </row>
+    <row r="219" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>1</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C220" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="6" t="s">
@@ -4953,10 +4966,10 @@
         <v>2</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>108</v>
+        <v>264</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>15</v>
@@ -4970,9 +4983,9 @@
         <v>3</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C222" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="6" t="s">
@@ -4982,14 +4995,15 @@
         <v>26</v>
       </c>
     </row>
+    <row r="223" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>1</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C224" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="6" t="s">
@@ -5004,16 +5018,16 @@
         <v>2</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>123</v>
+        <v>265</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,77 +5035,61 @@
         <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>73</v>
+        <v>265</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
-        <v>4</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>29</v>
+        <v>266</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>31</v>
+        <v>266</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C230" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -5101,15 +5099,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>1</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C232" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -5124,16 +5122,16 @@
         <v>2</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>127</v>
+        <v>267</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5141,9 +5139,9 @@
         <v>3</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C234" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -5158,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>12</v>
@@ -5175,16 +5173,16 @@
         <v>2</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5192,531 +5190,518 @@
         <v>3</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>4</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
-        <v>3</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E243" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>1</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
-        <v>3</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E247" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
-        <v>7</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
+        <v>1</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>2</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>2</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>3</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>1</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>2</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>3</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>4</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>5</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>6</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>7</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>8</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B264" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D252" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E252" s="6" t="s">
+      <c r="D264" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="6" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
-        <v>9</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
-        <v>1</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
-        <v>2</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <v>3</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <v>1</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>2</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <v>3</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <v>1</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
-        <v>2</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
-        <v>4</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>2</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>2</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>1</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>139</v>
@@ -5733,16 +5718,16 @@
         <v>2</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5750,16 +5735,16 @@
         <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5767,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>140</v>
@@ -5784,16 +5769,16 @@
         <v>5</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5808,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>139</v>
@@ -5825,10 +5810,10 @@
         <v>2</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
@@ -5842,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
@@ -5859,7 +5844,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>140</v>
@@ -5876,33 +5861,40 @@
         <v>5</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>215</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,16 +5902,16 @@
         <v>2</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,16 +5919,16 @@
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,322 +5936,329 @@
         <v>4</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>1</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>219</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>5</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
+        <v>2</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
         <v>3</v>
       </c>
-      <c r="B294" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>220</v>
+      <c r="B295" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>3</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>3</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
-        <v>2</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <v>1</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C307" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>203</v>
+    </row>
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>3</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6267,16 +6266,16 @@
         <v>1</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,16 +6283,16 @@
         <v>2</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6301,16 +6300,16 @@
         <v>3</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6318,713 +6317,730 @@
         <v>4</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
-        <v>5</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E318" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>3</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
-        <v>4</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>4</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
-        <v>4</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E333" s="6" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>26</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>5</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>3</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
+        <v>8</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>1</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>2</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>3</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>4</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>5</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>6</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>7</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>8</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>9</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>10</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
         <v>11</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B361" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C361" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D349" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E349" s="6" t="s">
+      <c r="D361" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
+    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
         <v>12</v>
       </c>
-      <c r="B350" s="8" t="s">
+      <c r="B362" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="C362" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D350" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E350" s="6" t="s">
+      <c r="D362" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E362" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
         <v>1</v>
       </c>
-      <c r="B353" s="8" t="s">
+      <c r="B365" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="C365" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D353" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E353" s="6" t="s">
+      <c r="D365" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E365" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>2</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>2</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>3</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>1</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>2</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E359" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>3</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>1</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
-        <v>2</v>
-      </c>
-      <c r="B363" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
-        <v>3</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -7032,16 +7048,16 @@
         <v>2</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>250</v>
+        <v>66</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -7049,9 +7065,9 @@
         <v>3</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C368" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C368" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D368" s="6" t="s">
@@ -7066,9 +7082,9 @@
         <v>1</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C370" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C370" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D370" s="6" t="s">
@@ -7083,16 +7099,16 @@
         <v>2</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>252</v>
+        <v>94</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -7100,9 +7116,9 @@
         <v>3</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C372" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C372" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D372" s="6" t="s">
@@ -7117,9 +7133,9 @@
         <v>1</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C374" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C374" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D374" s="6" t="s">
@@ -7134,16 +7150,16 @@
         <v>2</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>254</v>
+        <v>63</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>253</v>
+        <v>64</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -7151,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>25</v>
@@ -7168,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>12</v>
@@ -7185,16 +7201,16 @@
         <v>2</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -7202,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>25</v>
@@ -7211,6 +7227,159 @@
         <v>5</v>
       </c>
       <c r="E380" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>1</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>2</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>3</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>1</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E386" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>2</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>3</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E388" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>1</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>2</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>3</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="269">
   <si>
     <t>Application_Details</t>
   </si>
@@ -814,9 +814,6 @@
     <t>Making a call after Bar</t>
   </si>
   <si>
-    <t>https://10.162.53.150:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>QA08</t>
   </si>
   <si>
@@ -839,6 +836,12 @@
   </si>
   <si>
     <t>TransferOfOwnership_E2E</t>
+  </si>
+  <si>
+    <t>MSISDN--1212||SIM--1212||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>242</v>
@@ -1598,7 +1601,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -1609,10 +1612,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1640,6 +1643,26 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>12</v>
@@ -3921,10 +3944,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
@@ -3938,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>25</v>
@@ -4949,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>12</v>
@@ -4966,10 +4989,10 @@
         <v>2</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>15</v>
@@ -4983,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>25</v>
@@ -5001,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>12</v>
@@ -5018,10 +5041,10 @@
         <v>2</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>15</v>
@@ -5035,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>25</v>
@@ -5053,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>12</v>
@@ -5070,10 +5093,10 @@
         <v>2</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>15</v>
@@ -5087,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>25</v>
@@ -5105,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>12</v>
@@ -5122,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>15</v>
@@ -5139,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>25</v>
@@ -7337,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>12</v>
@@ -7354,16 +7377,16 @@
         <v>2</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>25</v>
